--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_20_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2188117.96763453</v>
+        <v>2187409.073478995</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2852922.957540467</v>
+        <v>2852922.957540469</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681861</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5102350969349</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.805278148539621</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>40.4492943561861</v>
       </c>
       <c r="U11" t="n">
-        <v>71.33901554432794</v>
+        <v>28.42837435861957</v>
       </c>
       <c r="V11" t="n">
         <v>148.4387238648558</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>170.4356193428911</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>190.7671014735059</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.4258607414002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>63.42870661949127</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>17.09514616855577</v>
@@ -1509,13 +1509,13 @@
         <v>51.81423338199161</v>
       </c>
       <c r="W12" t="n">
-        <v>69.89484909233653</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="X12" t="n">
-        <v>87.54390809948482</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.57665376092251</v>
+        <v>200.8189091210977</v>
       </c>
     </row>
     <row r="13">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>198.9352190051981</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>186.8905980212791</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>200.8189091210978</v>
+        <v>162.7932094633725</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>152.3846663756064</v>
       </c>
       <c r="I14" t="n">
-        <v>3.805278148539564</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>13.16601143930103</v>
       </c>
       <c r="T14" t="n">
-        <v>40.44929435618604</v>
+        <v>40.44929435618612</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.33901554432796</v>
       </c>
       <c r="V14" t="n">
-        <v>148.4387238648558</v>
+        <v>148.4387238648559</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>190.7671014735059</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>56.27272780758573</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>76.32009000103544</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>17.09514616855571</v>
+        <v>17.0951461685558</v>
       </c>
       <c r="U15" t="n">
-        <v>44.54320898382412</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="V15" t="n">
-        <v>51.81423338199156</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="W15" t="n">
-        <v>69.89484909233647</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="X15" t="n">
-        <v>24.3671319508147</v>
+        <v>59.88940522334889</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.8189091210978</v>
+        <v>23.57665376092254</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>37.9389426962811</v>
+        <v>37.93894269628119</v>
       </c>
       <c r="T16" t="n">
-        <v>47.1778408922611</v>
+        <v>47.17784089226119</v>
       </c>
       <c r="U16" t="n">
-        <v>105.9442391915932</v>
+        <v>105.9442391915933</v>
       </c>
       <c r="V16" t="n">
-        <v>72.84185340927559</v>
+        <v>72.84185340927567</v>
       </c>
       <c r="W16" t="n">
-        <v>105.998079229752</v>
+        <v>105.9980792297521</v>
       </c>
       <c r="X16" t="n">
-        <v>46.04586227464569</v>
+        <v>46.04586227464577</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.65417621010465</v>
+        <v>38.65417621010474</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>56.44355781784606</v>
       </c>
       <c r="E17" t="n">
-        <v>82.95686081853512</v>
+        <v>82.95686081853518</v>
       </c>
       <c r="F17" t="n">
         <v>107.1326885437885</v>
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>74.35877377376725</v>
       </c>
       <c r="F18" t="n">
-        <v>127.6127889678082</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.6042570273855</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T18" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.33846614895883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6414739969716</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>58.98445761112279</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>108.1511975869091</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>82.95686081853512</v>
       </c>
       <c r="F20" t="n">
-        <v>107.1326885437885</v>
+        <v>107.1326885437886</v>
       </c>
       <c r="G20" t="n">
         <v>114.1404607851664</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>11.5091695435179</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>30.76887157921728</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="V21" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
     </row>
     <row r="22">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>108.1511975869091</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>58.98445761112279</v>
       </c>
       <c r="R22" t="n">
-        <v>18.13008868351248</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.79765355888873</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>76.32009000103544</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T24" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>196.2514014027334</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>200.8189091210977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>167.1356551980319</v>
       </c>
       <c r="W25" t="n">
-        <v>187.8708728284458</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>242.4374437121841</v>
       </c>
       <c r="F26" t="n">
-        <v>266.6132714374376</v>
+        <v>266.6132714374375</v>
       </c>
       <c r="G26" t="n">
-        <v>273.6210436788155</v>
+        <v>273.6210436788154</v>
       </c>
       <c r="H26" t="n">
-        <v>191.7985719901666</v>
+        <v>191.7985719901665</v>
       </c>
       <c r="I26" t="n">
-        <v>43.21918376309984</v>
+        <v>43.21918376309981</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.57991705386121</v>
+        <v>52.57991705386118</v>
       </c>
       <c r="T26" t="n">
-        <v>79.86319997074631</v>
+        <v>79.86319997074628</v>
       </c>
       <c r="U26" t="n">
         <v>110.7529211588881</v>
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>60.47506607983368</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2646,10 +2646,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.6042570273855</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.799239478092222</v>
+        <v>76.32009000103544</v>
       </c>
       <c r="S27" t="n">
-        <v>22.783871669419</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T27" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U27" t="n">
-        <v>83.95711459838438</v>
+        <v>224.6377066414877</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2700,7 +2700,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>62.99055937548272</v>
+        <v>62.99055937548269</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.4030994475805</v>
+        <v>39.40309944758047</v>
       </c>
       <c r="C28" t="n">
-        <v>26.65596088809903</v>
+        <v>26.655960888099</v>
       </c>
       <c r="D28" t="n">
-        <v>8.324974471416056</v>
+        <v>8.324974471416027</v>
       </c>
       <c r="E28" t="n">
-        <v>6.294032130095871</v>
+        <v>6.294032130095843</v>
       </c>
       <c r="F28" t="n">
-        <v>5.478429366701192</v>
+        <v>5.478429366701164</v>
       </c>
       <c r="G28" t="n">
-        <v>26.96088195386831</v>
+        <v>26.96088195386828</v>
       </c>
       <c r="H28" t="n">
-        <v>18.74751265120041</v>
+        <v>18.74751265120038</v>
       </c>
       <c r="I28" t="n">
-        <v>5.616462037797053</v>
+        <v>5.616462037797024</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.55440599674395</v>
+        <v>21.55440599674392</v>
       </c>
       <c r="S28" t="n">
-        <v>77.35284831084137</v>
+        <v>77.35284831084134</v>
       </c>
       <c r="T28" t="n">
-        <v>86.59174650682137</v>
+        <v>86.59174650682134</v>
       </c>
       <c r="U28" t="n">
-        <v>145.3581448061535</v>
+        <v>145.3581448061534</v>
       </c>
       <c r="V28" t="n">
-        <v>112.2557590238359</v>
+        <v>112.2557590238358</v>
       </c>
       <c r="W28" t="n">
         <v>145.4119848443122</v>
       </c>
       <c r="X28" t="n">
-        <v>85.45976788920595</v>
+        <v>85.45976788920592</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.06808182466492</v>
+        <v>78.06808182466489</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>243.0358179482917</v>
+        <v>243.0358179482916</v>
       </c>
       <c r="C29" t="n">
-        <v>226.3045036358393</v>
+        <v>226.3045036358392</v>
       </c>
       <c r="D29" t="n">
-        <v>215.9241407114951</v>
+        <v>215.924140711495</v>
       </c>
       <c r="E29" t="n">
-        <v>242.4374437121841</v>
+        <v>242.437443712184</v>
       </c>
       <c r="F29" t="n">
-        <v>266.6132714374376</v>
+        <v>266.6132714374374</v>
       </c>
       <c r="G29" t="n">
-        <v>273.6210436788155</v>
+        <v>273.6210436788153</v>
       </c>
       <c r="H29" t="n">
-        <v>191.7985719901666</v>
+        <v>191.7985719901664</v>
       </c>
       <c r="I29" t="n">
-        <v>43.21918376309984</v>
+        <v>43.21918376309971</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.57991705386121</v>
+        <v>52.5799170538611</v>
       </c>
       <c r="T29" t="n">
-        <v>79.86319997074631</v>
+        <v>79.86319997074619</v>
       </c>
       <c r="U29" t="n">
-        <v>110.7529211588881</v>
+        <v>110.752921158888</v>
       </c>
       <c r="V29" t="n">
-        <v>187.852629479416</v>
+        <v>187.8526294794159</v>
       </c>
       <c r="W29" t="n">
-        <v>209.8495249574513</v>
+        <v>209.8495249574512</v>
       </c>
       <c r="X29" t="n">
-        <v>230.1810070880661</v>
+        <v>230.181007088066</v>
       </c>
       <c r="Y29" t="n">
-        <v>246.0064797081325</v>
+        <v>246.0064797081324</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>141.7484883897756</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>15.35284166407052</v>
+        <v>15.35284166407041</v>
       </c>
       <c r="F30" t="n">
-        <v>2.82564004044599</v>
+        <v>32.95571423598206</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>76.32009000103544</v>
       </c>
       <c r="S30" t="n">
         <v>163.4644637125223</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.4030994475805</v>
+        <v>39.40309944758039</v>
       </c>
       <c r="C31" t="n">
-        <v>26.65596088809903</v>
+        <v>26.65596088809892</v>
       </c>
       <c r="D31" t="n">
-        <v>8.324974471416056</v>
+        <v>8.324974471415942</v>
       </c>
       <c r="E31" t="n">
-        <v>6.294032130095871</v>
+        <v>6.294032130095758</v>
       </c>
       <c r="F31" t="n">
-        <v>5.478429366701192</v>
+        <v>5.478429366701079</v>
       </c>
       <c r="G31" t="n">
-        <v>26.96088195386831</v>
+        <v>26.9608819538682</v>
       </c>
       <c r="H31" t="n">
-        <v>18.74751265120041</v>
+        <v>18.7475126512003</v>
       </c>
       <c r="I31" t="n">
-        <v>5.616462037797053</v>
+        <v>5.616462037796939</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.55440599674395</v>
+        <v>21.55440599674383</v>
       </c>
       <c r="S31" t="n">
-        <v>77.35284831084137</v>
+        <v>77.35284831084125</v>
       </c>
       <c r="T31" t="n">
-        <v>86.59174650682137</v>
+        <v>86.59174650682125</v>
       </c>
       <c r="U31" t="n">
-        <v>145.3581448061535</v>
+        <v>145.3581448061533</v>
       </c>
       <c r="V31" t="n">
-        <v>112.2557590238359</v>
+        <v>112.2557590238357</v>
       </c>
       <c r="W31" t="n">
-        <v>145.4119848443122</v>
+        <v>145.4119848443121</v>
       </c>
       <c r="X31" t="n">
-        <v>85.45976788920595</v>
+        <v>85.45976788920584</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.06808182466492</v>
+        <v>78.0680818246648</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>243.0358179482918</v>
+        <v>243.0358179482917</v>
       </c>
       <c r="C32" t="n">
-        <v>226.3045036358394</v>
+        <v>226.3045036358393</v>
       </c>
       <c r="D32" t="n">
         <v>215.9241407114951</v>
       </c>
       <c r="E32" t="n">
-        <v>242.4374437121842</v>
+        <v>242.4374437121841</v>
       </c>
       <c r="F32" t="n">
-        <v>266.6132714374376</v>
+        <v>266.6132714374375</v>
       </c>
       <c r="G32" t="n">
-        <v>273.6210436788155</v>
+        <v>273.6210436788154</v>
       </c>
       <c r="H32" t="n">
-        <v>191.7985719901666</v>
+        <v>191.7985719901665</v>
       </c>
       <c r="I32" t="n">
-        <v>43.21918376309986</v>
+        <v>43.21918376309981</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.57991705386124</v>
+        <v>52.57991705386118</v>
       </c>
       <c r="T32" t="n">
-        <v>79.86319997074634</v>
+        <v>79.86319997074628</v>
       </c>
       <c r="U32" t="n">
-        <v>110.7529211588882</v>
+        <v>110.7529211588881</v>
       </c>
       <c r="V32" t="n">
-        <v>187.8526294794161</v>
+        <v>187.852629479416</v>
       </c>
       <c r="W32" t="n">
         <v>209.8495249574513</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.69153356724155</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3114,19 +3114,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>15.3528416640705</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>114.2291365459239</v>
       </c>
       <c r="G33" t="n">
         <v>135.7272597341965</v>
       </c>
       <c r="H33" t="n">
-        <v>107.6042570273855</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.31402067538706</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.4644637125223</v>
+        <v>22.78387166941897</v>
       </c>
       <c r="T33" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U33" t="n">
-        <v>83.95711459838441</v>
+        <v>224.6377066414877</v>
       </c>
       <c r="V33" t="n">
-        <v>159.3939498423607</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>63.78103756537499</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.40309944758053</v>
+        <v>39.40309944758047</v>
       </c>
       <c r="C34" t="n">
-        <v>26.65596088809906</v>
+        <v>26.655960888099</v>
       </c>
       <c r="D34" t="n">
-        <v>8.324974471416084</v>
+        <v>8.324974471416027</v>
       </c>
       <c r="E34" t="n">
-        <v>6.2940321300959</v>
+        <v>6.294032130095843</v>
       </c>
       <c r="F34" t="n">
-        <v>5.478429366701221</v>
+        <v>5.478429366701164</v>
       </c>
       <c r="G34" t="n">
-        <v>26.96088195386834</v>
+        <v>26.96088195386828</v>
       </c>
       <c r="H34" t="n">
-        <v>18.74751265120044</v>
+        <v>18.74751265120038</v>
       </c>
       <c r="I34" t="n">
-        <v>5.616462037797081</v>
+        <v>5.616462037797024</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.55440599674397</v>
+        <v>21.55440599674392</v>
       </c>
       <c r="S34" t="n">
-        <v>77.3528483108414</v>
+        <v>77.35284831084134</v>
       </c>
       <c r="T34" t="n">
-        <v>86.59174650682139</v>
+        <v>86.59174650682134</v>
       </c>
       <c r="U34" t="n">
-        <v>145.3581448061535</v>
+        <v>145.3581448061534</v>
       </c>
       <c r="V34" t="n">
-        <v>112.2557590238359</v>
+        <v>112.2557590238358</v>
       </c>
       <c r="W34" t="n">
-        <v>145.4119848443123</v>
+        <v>145.4119848443122</v>
       </c>
       <c r="X34" t="n">
-        <v>85.45976788920598</v>
+        <v>85.45976788920592</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.06808182466494</v>
+        <v>78.06808182466489</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>214.0333543835763</v>
       </c>
       <c r="G35" t="n">
-        <v>221.0411266249542</v>
+        <v>221.0411266249541</v>
       </c>
       <c r="H35" t="n">
         <v>139.2186549363053</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>27.28328291688507</v>
+        <v>27.28328291688504</v>
       </c>
       <c r="U35" t="n">
-        <v>58.17300410502691</v>
+        <v>58.17300410502687</v>
       </c>
       <c r="V35" t="n">
         <v>135.2727124255548</v>
@@ -3332,7 +3332,7 @@
         <v>177.6010900342048</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.4265626542713</v>
+        <v>193.4265626542712</v>
       </c>
     </row>
     <row r="36">
@@ -3351,13 +3351,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7272597341965</v>
+        <v>102.8270592963671</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>76.32009000103544</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>125.1964287771453</v>
+        <v>197.1896438262193</v>
       </c>
       <c r="U36" t="n">
         <v>224.6377066414877</v>
@@ -3405,7 +3405,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>56.7288376530355</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.77293125698013</v>
+        <v>24.7729312569801</v>
       </c>
       <c r="T37" t="n">
-        <v>34.01182945296013</v>
+        <v>34.0118294529601</v>
       </c>
       <c r="U37" t="n">
-        <v>92.77822775229222</v>
+        <v>92.7782277522922</v>
       </c>
       <c r="V37" t="n">
-        <v>65.19149246029772</v>
+        <v>59.67584196997458</v>
       </c>
       <c r="W37" t="n">
-        <v>92.83206779045099</v>
+        <v>92.83206779045096</v>
       </c>
       <c r="X37" t="n">
-        <v>32.87985083534471</v>
+        <v>38.39550132566809</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.48816477080368</v>
+        <v>25.48816477080365</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>214.0333543835763</v>
       </c>
       <c r="G38" t="n">
-        <v>221.0411266249542</v>
+        <v>221.0411266249541</v>
       </c>
       <c r="H38" t="n">
         <v>139.2186549363053</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>27.28328291688507</v>
+        <v>27.28328291688504</v>
       </c>
       <c r="U38" t="n">
-        <v>58.17300410502691</v>
+        <v>58.17300410502687</v>
       </c>
       <c r="V38" t="n">
         <v>135.2727124255548</v>
@@ -3569,7 +3569,7 @@
         <v>177.6010900342048</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.4265626542713</v>
+        <v>193.4265626542712</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3591,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.326874951961318</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>76.32009000103544</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>13.97976767170734</v>
       </c>
       <c r="T39" t="n">
         <v>197.1896438262193</v>
@@ -3648,7 +3648,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.41064232162148</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>5.51565049032311</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.77293125698013</v>
+        <v>24.7729312569801</v>
       </c>
       <c r="T40" t="n">
-        <v>34.01182945296013</v>
+        <v>39.52747994328352</v>
       </c>
       <c r="U40" t="n">
-        <v>92.77822775229222</v>
+        <v>92.7782277522922</v>
       </c>
       <c r="V40" t="n">
-        <v>59.67584196997461</v>
+        <v>59.67584196997458</v>
       </c>
       <c r="W40" t="n">
-        <v>92.83206779045099</v>
+        <v>92.83206779045096</v>
       </c>
       <c r="X40" t="n">
-        <v>32.87985083534471</v>
+        <v>32.87985083534468</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.48816477080368</v>
+        <v>25.48816477080365</v>
       </c>
     </row>
     <row r="41">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
@@ -3834,7 +3834,7 @@
         <v>135.7272597341965</v>
       </c>
       <c r="H42" t="n">
-        <v>107.6042570273855</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>76.32009000103544</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T42" t="n">
         <v>197.1896438262193</v>
       </c>
       <c r="U42" t="n">
-        <v>99.12539939649974</v>
+        <v>224.6377066414877</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>86.43751274501552</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.51565049032342</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.515650490323426</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7272597341965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>76.32009000103542</v>
       </c>
       <c r="S45" t="n">
-        <v>4.326874951961445</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T45" t="n">
         <v>197.1896438262193</v>
@@ -4116,13 +4116,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>56.72883765303553</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>104.7312105810785</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>10.41064232162151</v>
       </c>
     </row>
     <row r="46">
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.77293125698015</v>
+        <v>30.28858174730329</v>
       </c>
       <c r="T46" t="n">
         <v>34.01182945296016</v>
       </c>
       <c r="U46" t="n">
-        <v>98.29387824261539</v>
+        <v>92.77822775229225</v>
       </c>
       <c r="V46" t="n">
         <v>59.67584196997464</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>401.0497777464277</v>
+        <v>218.9128956802914</v>
       </c>
       <c r="C11" t="n">
-        <v>401.0497777464277</v>
+        <v>218.9128956802914</v>
       </c>
       <c r="D11" t="n">
-        <v>222.756610981847</v>
+        <v>218.9128956802914</v>
       </c>
       <c r="E11" t="n">
-        <v>222.756610981847</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="F11" t="n">
-        <v>222.756610981847</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="G11" t="n">
-        <v>19.90922803124315</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="H11" t="n">
-        <v>19.90922803124315</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="I11" t="n">
         <v>16.06551272968782</v>
       </c>
       <c r="J11" t="n">
-        <v>61.88955680326639</v>
+        <v>61.88955680326638</v>
       </c>
       <c r="K11" t="n">
-        <v>252.8445129431564</v>
+        <v>155.6291510293161</v>
       </c>
       <c r="L11" t="n">
-        <v>451.6552329730432</v>
+        <v>155.6291510293161</v>
       </c>
       <c r="M11" t="n">
-        <v>650.4659530029301</v>
+        <v>354.4398710592028</v>
       </c>
       <c r="N11" t="n">
-        <v>650.4659530029301</v>
+        <v>354.4398710592028</v>
       </c>
       <c r="O11" t="n">
-        <v>803.2756364843913</v>
+        <v>553.2505910890895</v>
       </c>
       <c r="P11" t="n">
-        <v>803.2756364843913</v>
+        <v>740.122224144043</v>
       </c>
       <c r="Q11" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R11" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="S11" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="T11" t="n">
-        <v>803.2756364843913</v>
+        <v>762.4177633973342</v>
       </c>
       <c r="U11" t="n">
-        <v>731.2160248234539</v>
+        <v>733.7022337421629</v>
       </c>
       <c r="V11" t="n">
-        <v>581.2779199094582</v>
+        <v>583.764128828167</v>
       </c>
       <c r="W11" t="n">
-        <v>581.2779199094582</v>
+        <v>411.6069375727216</v>
       </c>
       <c r="X11" t="n">
-        <v>581.2779199094582</v>
+        <v>218.9128956802914</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.0497777464277</v>
+        <v>218.9128956802914</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>173.6750417268331</v>
+        <v>80.13491335543657</v>
       </c>
       <c r="C12" t="n">
-        <v>173.6750417268331</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="D12" t="n">
-        <v>173.6750417268331</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="E12" t="n">
         <v>16.06551272968782</v>
@@ -5118,52 +5118,52 @@
         <v>16.06551272968782</v>
       </c>
       <c r="J12" t="n">
-        <v>51.14004463566324</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="K12" t="n">
-        <v>237.6936194845046</v>
+        <v>202.6190875785292</v>
       </c>
       <c r="L12" t="n">
-        <v>436.5043395143914</v>
+        <v>202.6190875785292</v>
       </c>
       <c r="M12" t="n">
-        <v>436.5043395143914</v>
+        <v>401.4298076084159</v>
       </c>
       <c r="N12" t="n">
-        <v>436.5043395143914</v>
+        <v>485.8867086203976</v>
       </c>
       <c r="O12" t="n">
-        <v>485.8867086203979</v>
+        <v>485.8867086203976</v>
       </c>
       <c r="P12" t="n">
-        <v>684.6974286502848</v>
+        <v>684.6974286502843</v>
       </c>
       <c r="Q12" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R12" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="S12" t="n">
-        <v>638.1600165727525</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="T12" t="n">
-        <v>620.89219216007</v>
+        <v>786.0078120717083</v>
       </c>
       <c r="U12" t="n">
-        <v>575.8990517723688</v>
+        <v>741.0146716840071</v>
       </c>
       <c r="V12" t="n">
-        <v>523.5614422956096</v>
+        <v>688.6770622072479</v>
       </c>
       <c r="W12" t="n">
-        <v>452.9605846265828</v>
+        <v>485.8296792566441</v>
       </c>
       <c r="X12" t="n">
-        <v>364.5323946271031</v>
+        <v>282.9822963060403</v>
       </c>
       <c r="Y12" t="n">
-        <v>340.7175928483936</v>
+        <v>80.13491335543657</v>
       </c>
     </row>
     <row r="13">
@@ -5182,25 +5182,25 @@
         <v>16.06551272968782</v>
       </c>
       <c r="E13" t="n">
-        <v>16.06551272968782</v>
+        <v>48.85418747930751</v>
       </c>
       <c r="F13" t="n">
-        <v>16.06551272968782</v>
+        <v>48.85418747930751</v>
       </c>
       <c r="G13" t="n">
-        <v>16.06551272968782</v>
+        <v>48.85418747930751</v>
       </c>
       <c r="H13" t="n">
-        <v>16.06551272968782</v>
+        <v>48.85418747930751</v>
       </c>
       <c r="I13" t="n">
-        <v>16.06551272968782</v>
+        <v>48.85418747930751</v>
       </c>
       <c r="J13" t="n">
-        <v>16.06551272968782</v>
+        <v>48.85418747930751</v>
       </c>
       <c r="K13" t="n">
-        <v>29.97702671838668</v>
+        <v>117.4986727636231</v>
       </c>
       <c r="L13" t="n">
         <v>191.1042362389631</v>
@@ -5239,7 +5239,7 @@
         <v>101.6211071587287</v>
       </c>
       <c r="X13" t="n">
-        <v>55.11013516413703</v>
+        <v>55.11013516413702</v>
       </c>
       <c r="Y13" t="n">
         <v>16.06551272968782</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>411.5349928215227</v>
+        <v>334.4270034761313</v>
       </c>
       <c r="C14" t="n">
-        <v>222.7566109818468</v>
+        <v>334.4270034761313</v>
       </c>
       <c r="D14" t="n">
-        <v>222.7566109818468</v>
+        <v>334.4270034761313</v>
       </c>
       <c r="E14" t="n">
-        <v>19.90922803124294</v>
+        <v>169.9894181595932</v>
       </c>
       <c r="F14" t="n">
-        <v>19.90922803124294</v>
+        <v>169.9894181595932</v>
       </c>
       <c r="G14" t="n">
-        <v>19.90922803124294</v>
+        <v>169.9894181595932</v>
       </c>
       <c r="H14" t="n">
-        <v>19.90922803124294</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="I14" t="n">
         <v>16.06551272968782</v>
       </c>
       <c r="J14" t="n">
-        <v>16.06551272968782</v>
+        <v>61.88955680326638</v>
       </c>
       <c r="K14" t="n">
-        <v>207.0204688695778</v>
+        <v>61.88955680326638</v>
       </c>
       <c r="L14" t="n">
-        <v>218.7825633696641</v>
+        <v>260.7002768331531</v>
       </c>
       <c r="M14" t="n">
-        <v>417.593283399551</v>
+        <v>260.7002768331531</v>
       </c>
       <c r="N14" t="n">
-        <v>616.4040034294378</v>
+        <v>459.5109968630398</v>
       </c>
       <c r="O14" t="n">
-        <v>616.4040034294378</v>
+        <v>616.4040034294374</v>
       </c>
       <c r="P14" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="Q14" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R14" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="S14" t="n">
-        <v>803.2756364843913</v>
+        <v>789.9766350305514</v>
       </c>
       <c r="T14" t="n">
-        <v>762.4177633973347</v>
+        <v>749.1187619434947</v>
       </c>
       <c r="U14" t="n">
-        <v>762.4177633973347</v>
+        <v>677.0591502825573</v>
       </c>
       <c r="V14" t="n">
-        <v>612.479658483339</v>
+        <v>527.1210453685615</v>
       </c>
       <c r="W14" t="n">
-        <v>612.479658483339</v>
+        <v>527.1210453685615</v>
       </c>
       <c r="X14" t="n">
-        <v>612.479658483339</v>
+        <v>334.4270034761313</v>
       </c>
       <c r="Y14" t="n">
-        <v>612.479658483339</v>
+        <v>334.4270034761313</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>390.6155569908353</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="C15" t="n">
-        <v>217.8624419126525</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="D15" t="n">
-        <v>217.8624419126525</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="E15" t="n">
-        <v>217.8624419126525</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="F15" t="n">
-        <v>72.90665192926937</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="G15" t="n">
-        <v>72.90665192926937</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="H15" t="n">
         <v>16.06551272968782</v>
@@ -5361,46 +5361,46 @@
         <v>51.14004463566324</v>
       </c>
       <c r="L15" t="n">
-        <v>249.9507646655501</v>
+        <v>249.95076466555</v>
       </c>
       <c r="M15" t="n">
-        <v>448.7614846954369</v>
+        <v>448.7614846954367</v>
       </c>
       <c r="N15" t="n">
-        <v>448.7614846954369</v>
+        <v>604.4649164545041</v>
       </c>
       <c r="O15" t="n">
-        <v>647.5722047253238</v>
+        <v>604.4649164545041</v>
       </c>
       <c r="P15" t="n">
-        <v>684.6974286502848</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="Q15" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R15" t="n">
-        <v>803.2756364843913</v>
+        <v>726.1846364833449</v>
       </c>
       <c r="S15" t="n">
-        <v>803.2756364843913</v>
+        <v>726.1846364833449</v>
       </c>
       <c r="T15" t="n">
-        <v>786.0078120717087</v>
+        <v>708.9168120706622</v>
       </c>
       <c r="U15" t="n">
-        <v>741.0146716840076</v>
+        <v>506.0694291200584</v>
       </c>
       <c r="V15" t="n">
-        <v>688.6770622072485</v>
+        <v>303.2220461694546</v>
       </c>
       <c r="W15" t="n">
-        <v>618.0762045382218</v>
+        <v>100.3746632188509</v>
       </c>
       <c r="X15" t="n">
-        <v>593.4629399414392</v>
+        <v>39.88031450839745</v>
       </c>
       <c r="Y15" t="n">
-        <v>390.6155569908353</v>
+        <v>16.06551272968782</v>
       </c>
     </row>
     <row r="16">
@@ -5437,46 +5437,46 @@
         <v>16.06551272968782</v>
       </c>
       <c r="K16" t="n">
-        <v>29.97702671838668</v>
+        <v>29.97702671838667</v>
       </c>
       <c r="L16" t="n">
         <v>103.5825901937266</v>
       </c>
       <c r="M16" t="n">
-        <v>279.3038822845476</v>
+        <v>191.7822362393115</v>
       </c>
       <c r="N16" t="n">
-        <v>370.5475997779111</v>
+        <v>283.0259537326751</v>
       </c>
       <c r="O16" t="n">
-        <v>439.4893445512315</v>
+        <v>351.9676985059954</v>
       </c>
       <c r="P16" t="n">
-        <v>475.2584358649538</v>
+        <v>475.2584358649544</v>
       </c>
       <c r="Q16" t="n">
-        <v>475.2584358649538</v>
+        <v>475.2584358649544</v>
       </c>
       <c r="R16" t="n">
-        <v>475.2584358649538</v>
+        <v>475.2584358649544</v>
       </c>
       <c r="S16" t="n">
-        <v>436.9362715252759</v>
+        <v>436.9362715252764</v>
       </c>
       <c r="T16" t="n">
-        <v>389.2818867856182</v>
+        <v>389.2818867856187</v>
       </c>
       <c r="U16" t="n">
-        <v>282.2675037638069</v>
+        <v>282.2675037638073</v>
       </c>
       <c r="V16" t="n">
-        <v>208.6898740574679</v>
+        <v>208.6898740574682</v>
       </c>
       <c r="W16" t="n">
-        <v>101.6211071587286</v>
+        <v>101.6211071587287</v>
       </c>
       <c r="X16" t="n">
-        <v>55.11013516413697</v>
+        <v>55.11013516413705</v>
       </c>
       <c r="Y16" t="n">
         <v>16.06551272968782</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>480.5255913196319</v>
+        <v>480.5255913196311</v>
       </c>
       <c r="C17" t="n">
-        <v>413.0266814790355</v>
+        <v>413.0266814790348</v>
       </c>
       <c r="D17" t="n">
-        <v>356.0129867135345</v>
+        <v>356.0129867135338</v>
       </c>
       <c r="E17" t="n">
-        <v>272.218177805923</v>
+        <v>272.2181778059225</v>
       </c>
       <c r="F17" t="n">
-        <v>164.0033408930053</v>
+        <v>164.0033408930048</v>
       </c>
       <c r="G17" t="n">
-        <v>48.70994616051361</v>
+        <v>48.7099461605136</v>
       </c>
       <c r="H17" t="n">
         <v>16.06551272968782</v>
@@ -5513,52 +5513,52 @@
         <v>16.06551272968782</v>
       </c>
       <c r="J17" t="n">
-        <v>19.97184333977731</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="K17" t="n">
-        <v>19.97184333977731</v>
+        <v>143.6900640543828</v>
       </c>
       <c r="L17" t="n">
-        <v>218.7825633696641</v>
+        <v>342.5007840842695</v>
       </c>
       <c r="M17" t="n">
-        <v>417.593283399551</v>
+        <v>541.3115041141563</v>
       </c>
       <c r="N17" t="n">
-        <v>616.4040034294378</v>
+        <v>541.3115041141563</v>
       </c>
       <c r="O17" t="n">
-        <v>616.4040034294378</v>
+        <v>740.122224144043</v>
       </c>
       <c r="P17" t="n">
-        <v>803.2756364843913</v>
+        <v>740.122224144043</v>
       </c>
       <c r="Q17" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R17" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="S17" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="T17" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="U17" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="V17" t="n">
-        <v>774.6170035694754</v>
+        <v>774.6170035694748</v>
       </c>
       <c r="W17" t="n">
-        <v>723.7392843131097</v>
+        <v>723.739284313109</v>
       </c>
       <c r="X17" t="n">
-        <v>652.3247144197593</v>
+        <v>652.3247144197585</v>
       </c>
       <c r="Y17" t="n">
-        <v>564.9248186475538</v>
+        <v>564.9248186475529</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>401.2467951234648</v>
+        <v>236.1311752118258</v>
       </c>
       <c r="C18" t="n">
-        <v>401.2467951234648</v>
+        <v>236.1311752118258</v>
       </c>
       <c r="D18" t="n">
-        <v>253.6584884824087</v>
+        <v>236.1311752118258</v>
       </c>
       <c r="E18" t="n">
-        <v>253.6584884824087</v>
+        <v>161.021302713071</v>
       </c>
       <c r="F18" t="n">
-        <v>124.7566814442186</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="G18" t="n">
-        <v>124.7566814442186</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="H18" t="n">
         <v>16.06551272968782</v>
@@ -5592,52 +5592,52 @@
         <v>16.06551272968782</v>
       </c>
       <c r="J18" t="n">
-        <v>51.14004463566324</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="K18" t="n">
-        <v>237.6936194845046</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="L18" t="n">
-        <v>436.5043395143914</v>
+        <v>206.8434763947306</v>
       </c>
       <c r="M18" t="n">
-        <v>635.3150595442783</v>
+        <v>405.6541964246173</v>
       </c>
       <c r="N18" t="n">
-        <v>635.3150595442783</v>
+        <v>604.4649164545041</v>
       </c>
       <c r="O18" t="n">
-        <v>635.3150595442783</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="P18" t="n">
-        <v>684.6974286502848</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="Q18" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R18" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="S18" t="n">
-        <v>803.2756364843913</v>
+        <v>638.1600165727521</v>
       </c>
       <c r="T18" t="n">
-        <v>604.0941780740687</v>
+        <v>438.9785581624295</v>
       </c>
       <c r="U18" t="n">
-        <v>604.0941780740687</v>
+        <v>236.1311752118258</v>
       </c>
       <c r="V18" t="n">
-        <v>604.0941780740687</v>
+        <v>236.1311752118258</v>
       </c>
       <c r="W18" t="n">
-        <v>604.0941780740687</v>
+        <v>236.1311752118258</v>
       </c>
       <c r="X18" t="n">
-        <v>604.0941780740687</v>
+        <v>236.1311752118258</v>
       </c>
       <c r="Y18" t="n">
-        <v>401.2467951234648</v>
+        <v>236.1311752118258</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>333.8595512854159</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="C19" t="n">
-        <v>333.8595512854159</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="D19" t="n">
-        <v>333.8595512854159</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="E19" t="n">
-        <v>185.4003349488511</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="F19" t="n">
-        <v>185.4003349488511</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="G19" t="n">
         <v>16.06551272968782</v>
@@ -5674,7 +5674,7 @@
         <v>16.06551272968782</v>
       </c>
       <c r="K19" t="n">
-        <v>29.97702671838668</v>
+        <v>29.97702671838667</v>
       </c>
       <c r="L19" t="n">
         <v>103.5825901937266</v>
@@ -5692,31 +5692,31 @@
         <v>387.7367898197178</v>
       </c>
       <c r="Q19" t="n">
-        <v>387.7367898197178</v>
+        <v>328.1565296064624</v>
       </c>
       <c r="R19" t="n">
-        <v>387.7367898197178</v>
+        <v>218.9128956802916</v>
       </c>
       <c r="S19" t="n">
-        <v>387.7367898197178</v>
+        <v>218.9128956802916</v>
       </c>
       <c r="T19" t="n">
-        <v>387.7367898197178</v>
+        <v>218.9128956802916</v>
       </c>
       <c r="U19" t="n">
-        <v>387.7367898197178</v>
+        <v>218.9128956802916</v>
       </c>
       <c r="V19" t="n">
-        <v>387.7367898197178</v>
+        <v>218.9128956802916</v>
       </c>
       <c r="W19" t="n">
-        <v>387.7367898197178</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="X19" t="n">
-        <v>387.7367898197178</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="Y19" t="n">
-        <v>387.7367898197178</v>
+        <v>16.06551272968782</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>480.5255913196313</v>
+        <v>480.5255913196312</v>
       </c>
       <c r="C20" t="n">
-        <v>413.026681479035</v>
+        <v>413.0266814790348</v>
       </c>
       <c r="D20" t="n">
         <v>356.0129867135338</v>
@@ -5738,10 +5738,10 @@
         <v>272.2181778059226</v>
       </c>
       <c r="F20" t="n">
-        <v>164.0033408930049</v>
+        <v>164.0033408930048</v>
       </c>
       <c r="G20" t="n">
-        <v>48.70994616051361</v>
+        <v>48.7099461605136</v>
       </c>
       <c r="H20" t="n">
         <v>16.06551272968782</v>
@@ -5750,52 +5750,52 @@
         <v>16.06551272968782</v>
       </c>
       <c r="J20" t="n">
-        <v>61.88955680326639</v>
+        <v>27.82760722977392</v>
       </c>
       <c r="K20" t="n">
-        <v>252.8445129431564</v>
+        <v>218.7825633696639</v>
       </c>
       <c r="L20" t="n">
-        <v>451.6552329730432</v>
+        <v>417.5932833995506</v>
       </c>
       <c r="M20" t="n">
-        <v>650.4659530029301</v>
+        <v>417.5932833995506</v>
       </c>
       <c r="N20" t="n">
-        <v>650.4659530029301</v>
+        <v>616.4040034294374</v>
       </c>
       <c r="O20" t="n">
-        <v>650.4659530029301</v>
+        <v>616.4040034294374</v>
       </c>
       <c r="P20" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="Q20" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R20" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="S20" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="T20" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="U20" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="V20" t="n">
-        <v>774.6170035694749</v>
+        <v>774.6170035694747</v>
       </c>
       <c r="W20" t="n">
-        <v>723.7392843131094</v>
+        <v>723.739284313109</v>
       </c>
       <c r="X20" t="n">
-        <v>652.3247144197589</v>
+        <v>652.3247144197586</v>
       </c>
       <c r="Y20" t="n">
-        <v>564.9248186475534</v>
+        <v>564.9248186475531</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.7334876325796</v>
+        <v>27.69093651101903</v>
       </c>
       <c r="C21" t="n">
-        <v>194.7334876325796</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="D21" t="n">
-        <v>47.14518099152346</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="E21" t="n">
-        <v>47.14518099152346</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="F21" t="n">
-        <v>47.14518099152346</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="G21" t="n">
         <v>16.06551272968782</v>
@@ -5832,49 +5832,49 @@
         <v>51.14004463566324</v>
       </c>
       <c r="K21" t="n">
-        <v>51.14004463566324</v>
+        <v>237.6936194845046</v>
       </c>
       <c r="L21" t="n">
-        <v>249.9507646655501</v>
+        <v>436.5043395143913</v>
       </c>
       <c r="M21" t="n">
-        <v>448.7614846954369</v>
+        <v>485.8867086203976</v>
       </c>
       <c r="N21" t="n">
-        <v>485.8867086203979</v>
+        <v>684.6974286502843</v>
       </c>
       <c r="O21" t="n">
-        <v>485.8867086203979</v>
+        <v>684.6974286502843</v>
       </c>
       <c r="P21" t="n">
-        <v>684.6974286502848</v>
+        <v>684.6974286502843</v>
       </c>
       <c r="Q21" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R21" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="S21" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="T21" t="n">
-        <v>803.2756364843913</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="U21" t="n">
-        <v>803.2756364843913</v>
+        <v>600.428253533787</v>
       </c>
       <c r="V21" t="n">
-        <v>600.4282535337874</v>
+        <v>600.428253533787</v>
       </c>
       <c r="W21" t="n">
-        <v>397.5808705831835</v>
+        <v>600.428253533787</v>
       </c>
       <c r="X21" t="n">
-        <v>194.7334876325796</v>
+        <v>397.5808705831832</v>
       </c>
       <c r="Y21" t="n">
-        <v>194.7334876325796</v>
+        <v>194.7334876325795</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>166.5761859766771</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="C22" t="n">
-        <v>166.5761859766771</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="D22" t="n">
         <v>16.06551272968782</v>
@@ -5911,7 +5911,7 @@
         <v>16.06551272968782</v>
       </c>
       <c r="K22" t="n">
-        <v>29.97702671838668</v>
+        <v>29.97702671838667</v>
       </c>
       <c r="L22" t="n">
         <v>103.5825901937266</v>
@@ -5929,31 +5929,31 @@
         <v>387.7367898197178</v>
       </c>
       <c r="Q22" t="n">
-        <v>387.7367898197178</v>
+        <v>328.1565296064624</v>
       </c>
       <c r="R22" t="n">
-        <v>369.4235689272809</v>
+        <v>328.1565296064624</v>
       </c>
       <c r="S22" t="n">
-        <v>369.4235689272809</v>
+        <v>328.1565296064624</v>
       </c>
       <c r="T22" t="n">
-        <v>369.4235689272809</v>
+        <v>328.1565296064624</v>
       </c>
       <c r="U22" t="n">
-        <v>369.4235689272809</v>
+        <v>328.1565296064624</v>
       </c>
       <c r="V22" t="n">
-        <v>369.4235689272809</v>
+        <v>125.3091466558587</v>
       </c>
       <c r="W22" t="n">
-        <v>369.4235689272809</v>
+        <v>125.3091466558587</v>
       </c>
       <c r="X22" t="n">
-        <v>369.4235689272809</v>
+        <v>125.3091466558587</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.5761859766771</v>
+        <v>125.3091466558587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>480.5255913196315</v>
+        <v>480.525591319631</v>
       </c>
       <c r="C23" t="n">
-        <v>413.0266814790351</v>
+        <v>413.0266814790348</v>
       </c>
       <c r="D23" t="n">
-        <v>356.0129867135341</v>
+        <v>356.0129867135338</v>
       </c>
       <c r="E23" t="n">
-        <v>272.2181778059227</v>
+        <v>272.2181778059226</v>
       </c>
       <c r="F23" t="n">
-        <v>164.003340893005</v>
+        <v>164.0033408930049</v>
       </c>
       <c r="G23" t="n">
         <v>48.7099461605136</v>
@@ -5990,49 +5990,49 @@
         <v>61.88955680326638</v>
       </c>
       <c r="K23" t="n">
-        <v>252.8445129431563</v>
+        <v>61.88955680326638</v>
       </c>
       <c r="L23" t="n">
-        <v>252.8445129431563</v>
+        <v>218.7825633696639</v>
       </c>
       <c r="M23" t="n">
-        <v>354.4398710592029</v>
+        <v>218.7825633696639</v>
       </c>
       <c r="N23" t="n">
-        <v>553.2505910890897</v>
+        <v>417.5932833995506</v>
       </c>
       <c r="O23" t="n">
-        <v>553.2505910890897</v>
+        <v>616.4040034294374</v>
       </c>
       <c r="P23" t="n">
-        <v>740.1222241440431</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="Q23" t="n">
-        <v>803.2756364843909</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R23" t="n">
-        <v>803.2756364843909</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="S23" t="n">
-        <v>803.2756364843909</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="T23" t="n">
-        <v>803.2756364843909</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="U23" t="n">
-        <v>803.2756364843909</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="V23" t="n">
-        <v>774.6170035694751</v>
+        <v>774.6170035694747</v>
       </c>
       <c r="W23" t="n">
-        <v>723.7392843131094</v>
+        <v>723.739284313109</v>
       </c>
       <c r="X23" t="n">
-        <v>652.3247144197589</v>
+        <v>652.3247144197584</v>
       </c>
       <c r="Y23" t="n">
-        <v>564.9248186475534</v>
+        <v>564.9248186475529</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>333.7744177912538</v>
+        <v>163.6538193707439</v>
       </c>
       <c r="C24" t="n">
-        <v>161.021302713071</v>
+        <v>163.6538193707439</v>
       </c>
       <c r="D24" t="n">
-        <v>161.021302713071</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="E24" t="n">
-        <v>161.021302713071</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="F24" t="n">
         <v>16.06551272968782</v>
@@ -6066,52 +6066,52 @@
         <v>16.06551272968782</v>
       </c>
       <c r="J24" t="n">
-        <v>51.14004463566324</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="K24" t="n">
-        <v>51.14004463566324</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="L24" t="n">
-        <v>249.95076466555</v>
+        <v>214.8762327595745</v>
       </c>
       <c r="M24" t="n">
-        <v>249.95076466555</v>
+        <v>413.6869527894613</v>
       </c>
       <c r="N24" t="n">
-        <v>448.7614846954368</v>
+        <v>413.6869527894613</v>
       </c>
       <c r="O24" t="n">
-        <v>647.5722047253236</v>
+        <v>604.4649164545041</v>
       </c>
       <c r="P24" t="n">
-        <v>684.6974286502846</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="Q24" t="n">
-        <v>803.2756364843909</v>
+        <v>803.2756364843908</v>
       </c>
       <c r="R24" t="n">
-        <v>803.2756364843909</v>
+        <v>726.1846364833449</v>
       </c>
       <c r="S24" t="n">
-        <v>803.2756364843909</v>
+        <v>561.0690165717062</v>
       </c>
       <c r="T24" t="n">
-        <v>604.0941780740684</v>
+        <v>361.8875581613837</v>
       </c>
       <c r="U24" t="n">
-        <v>604.0941780740684</v>
+        <v>163.6538193707439</v>
       </c>
       <c r="V24" t="n">
-        <v>604.0941780740684</v>
+        <v>163.6538193707439</v>
       </c>
       <c r="W24" t="n">
-        <v>604.0941780740684</v>
+        <v>163.6538193707439</v>
       </c>
       <c r="X24" t="n">
-        <v>604.0941780740684</v>
+        <v>163.6538193707439</v>
       </c>
       <c r="Y24" t="n">
-        <v>401.2467951234646</v>
+        <v>163.6538193707439</v>
       </c>
     </row>
     <row r="25">
@@ -6175,22 +6175,22 @@
         <v>387.7367898197178</v>
       </c>
       <c r="T25" t="n">
-        <v>387.7367898197178</v>
+        <v>184.889406869114</v>
       </c>
       <c r="U25" t="n">
-        <v>387.7367898197178</v>
+        <v>184.889406869114</v>
       </c>
       <c r="V25" t="n">
-        <v>387.7367898197178</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="W25" t="n">
-        <v>197.9682314071462</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="X25" t="n">
-        <v>197.9682314071462</v>
+        <v>16.06551272968782</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.9682314071462</v>
+        <v>16.06551272968782</v>
       </c>
     </row>
     <row r="26">
@@ -6209,7 +6209,7 @@
         <v>1086.102367981805</v>
       </c>
       <c r="E26" t="n">
-        <v>841.2160612018212</v>
+        <v>841.2160612018215</v>
       </c>
       <c r="F26" t="n">
         <v>571.9097264165307</v>
@@ -6224,19 +6224,19 @@
         <v>58.13316133361968</v>
       </c>
       <c r="J26" t="n">
-        <v>243.2309915298705</v>
+        <v>243.230991529874</v>
       </c>
       <c r="K26" t="n">
-        <v>573.4597337924328</v>
+        <v>573.4597337924363</v>
       </c>
       <c r="L26" t="n">
-        <v>1001.599106522048</v>
+        <v>1001.599106522051</v>
       </c>
       <c r="M26" t="n">
-        <v>1477.503810042798</v>
+        <v>1477.503810042797</v>
       </c>
       <c r="N26" t="n">
-        <v>1943.338378751564</v>
+        <v>1943.338378751563</v>
       </c>
       <c r="O26" t="n">
         <v>2344.84590033393</v>
@@ -6245,7 +6245,7 @@
         <v>2670.991319511556</v>
       </c>
       <c r="Q26" t="n">
-        <v>2873.418517974576</v>
+        <v>2873.418517974575</v>
       </c>
       <c r="R26" t="n">
         <v>2906.658066680984</v>
@@ -6257,13 +6257,13 @@
         <v>2772.877140393502</v>
       </c>
       <c r="U26" t="n">
-        <v>2661.005502859272</v>
+        <v>2661.005502859271</v>
       </c>
       <c r="V26" t="n">
         <v>2471.255372071983</v>
       </c>
       <c r="W26" t="n">
-        <v>2259.286154943244</v>
+        <v>2259.286154943245</v>
       </c>
       <c r="X26" t="n">
         <v>2026.780087177521</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>926.829312903672</v>
+        <v>569.3727122883696</v>
       </c>
       <c r="C27" t="n">
-        <v>754.0761978254891</v>
+        <v>508.2867869552043</v>
       </c>
       <c r="D27" t="n">
-        <v>606.487891184433</v>
+        <v>360.6984803141481</v>
       </c>
       <c r="E27" t="n">
-        <v>448.8783621872877</v>
+        <v>203.0889513170028</v>
       </c>
       <c r="F27" t="n">
-        <v>303.9225722039046</v>
+        <v>58.13316133361968</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8243300481505</v>
+        <v>58.13316133361968</v>
       </c>
       <c r="H27" t="n">
         <v>58.13316133361968</v>
@@ -6327,28 +6327,28 @@
         <v>2161.629577505769</v>
       </c>
       <c r="R27" t="n">
-        <v>2157.791961871333</v>
+        <v>2084.538577504723</v>
       </c>
       <c r="S27" t="n">
-        <v>2134.777950084041</v>
+        <v>1919.422957593085</v>
       </c>
       <c r="T27" t="n">
-        <v>1935.596491673718</v>
+        <v>1720.241499182762</v>
       </c>
       <c r="U27" t="n">
-        <v>1850.791325412724</v>
+        <v>1493.334724797421</v>
       </c>
       <c r="V27" t="n">
-        <v>1616.540081938324</v>
+        <v>1259.083481323022</v>
       </c>
       <c r="W27" t="n">
-        <v>1364.025590271658</v>
+        <v>1006.568989656355</v>
       </c>
       <c r="X27" t="n">
-        <v>1157.498691677235</v>
+        <v>800.0420910619328</v>
       </c>
       <c r="Y27" t="n">
-        <v>1093.871864025232</v>
+        <v>736.41526340993</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157.2021042620822</v>
+        <v>157.202104262082</v>
       </c>
       <c r="C28" t="n">
-        <v>130.2768912438004</v>
+        <v>130.2768912438002</v>
       </c>
       <c r="D28" t="n">
-        <v>121.8678261211579</v>
+        <v>121.8678261211577</v>
       </c>
       <c r="E28" t="n">
-        <v>115.5102179089399</v>
+        <v>115.5102179089397</v>
       </c>
       <c r="F28" t="n">
-        <v>109.9764508718679</v>
+        <v>109.9764508718678</v>
       </c>
       <c r="G28" t="n">
-        <v>82.74323677705146</v>
+        <v>82.74323677705139</v>
       </c>
       <c r="H28" t="n">
-        <v>63.80635531119246</v>
+        <v>63.80635531119243</v>
       </c>
       <c r="I28" t="n">
         <v>58.13316133361968</v>
       </c>
       <c r="J28" t="n">
-        <v>58.13316133361968</v>
+        <v>126.82279949281</v>
       </c>
       <c r="K28" t="n">
-        <v>181.0713248636025</v>
+        <v>140.7343134815088</v>
       </c>
       <c r="L28" t="n">
-        <v>393.9506744616148</v>
+        <v>214.3398769568488</v>
       </c>
       <c r="M28" t="n">
-        <v>621.424106629872</v>
+        <v>302.5395230024337</v>
       </c>
       <c r="N28" t="n">
-        <v>712.6678241232355</v>
+        <v>533.0570266184695</v>
       </c>
       <c r="O28" t="n">
-        <v>920.8833550192281</v>
+        <v>700.7303958088947</v>
       </c>
       <c r="P28" t="n">
-        <v>956.6524463329505</v>
+        <v>875.7732732452894</v>
       </c>
       <c r="Q28" t="n">
-        <v>956.6524463329505</v>
+        <v>956.6524463329501</v>
       </c>
       <c r="R28" t="n">
-        <v>934.8803190635122</v>
+        <v>934.8803190635118</v>
       </c>
       <c r="S28" t="n">
-        <v>856.7461288505411</v>
+        <v>856.7461288505408</v>
       </c>
       <c r="T28" t="n">
-        <v>769.2797182375903</v>
+        <v>769.2797182375899</v>
       </c>
       <c r="U28" t="n">
-        <v>622.4533093424857</v>
+        <v>622.4533093424855</v>
       </c>
       <c r="V28" t="n">
-        <v>509.0636537628536</v>
+        <v>509.0636537628533</v>
       </c>
       <c r="W28" t="n">
-        <v>362.182860990821</v>
+        <v>362.1828609908208</v>
       </c>
       <c r="X28" t="n">
-        <v>275.8598631229362</v>
+        <v>275.859863122936</v>
       </c>
       <c r="Y28" t="n">
-        <v>197.0032148151938</v>
+        <v>197.0032148151936</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1532.797968332649</v>
+        <v>1532.797968332647</v>
       </c>
       <c r="C29" t="n">
-        <v>1304.207560619679</v>
+        <v>1304.207560619678</v>
       </c>
       <c r="D29" t="n">
-        <v>1086.102367981806</v>
+        <v>1086.102367981804</v>
       </c>
       <c r="E29" t="n">
-        <v>841.2160612018213</v>
+        <v>841.2160612018206</v>
       </c>
       <c r="F29" t="n">
-        <v>571.9097264165307</v>
+        <v>571.9097264165302</v>
       </c>
       <c r="G29" t="n">
-        <v>295.5248338116667</v>
+        <v>295.5248338116663</v>
       </c>
       <c r="H29" t="n">
-        <v>101.788902508468</v>
+        <v>101.7889025084679</v>
       </c>
       <c r="I29" t="n">
         <v>58.13316133361968</v>
       </c>
       <c r="J29" t="n">
-        <v>243.2309915298705</v>
+        <v>243.2309915298706</v>
       </c>
       <c r="K29" t="n">
-        <v>573.4597337924328</v>
+        <v>573.4597337924331</v>
       </c>
       <c r="L29" t="n">
-        <v>1001.599106522052</v>
+        <v>1001.599106522048</v>
       </c>
       <c r="M29" t="n">
-        <v>1477.503810042798</v>
+        <v>1477.503810042794</v>
       </c>
       <c r="N29" t="n">
-        <v>1943.338378751564</v>
+        <v>1943.338378751562</v>
       </c>
       <c r="O29" t="n">
-        <v>2344.84590033393</v>
+        <v>2344.845900333929</v>
       </c>
       <c r="P29" t="n">
-        <v>2670.991319511556</v>
+        <v>2670.991319511555</v>
       </c>
       <c r="Q29" t="n">
-        <v>2873.418517974576</v>
+        <v>2873.418517974575</v>
       </c>
       <c r="R29" t="n">
         <v>2906.658066680984</v>
       </c>
       <c r="S29" t="n">
-        <v>2853.547039353852</v>
+        <v>2853.547039353851</v>
       </c>
       <c r="T29" t="n">
-        <v>2772.877140393502</v>
+        <v>2772.877140393501</v>
       </c>
       <c r="U29" t="n">
-        <v>2661.005502859272</v>
+        <v>2661.005502859271</v>
       </c>
       <c r="V29" t="n">
-        <v>2471.255372071983</v>
+        <v>2471.255372071982</v>
       </c>
       <c r="W29" t="n">
-        <v>2259.286154943245</v>
+        <v>2259.286154943243</v>
       </c>
       <c r="X29" t="n">
-        <v>2026.780087177522</v>
+        <v>2026.78008717752</v>
       </c>
       <c r="Y29" t="n">
-        <v>1778.288693532943</v>
+        <v>1778.288693532942</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>504.3621041650684</v>
+        <v>427.2711041640227</v>
       </c>
       <c r="C30" t="n">
-        <v>361.1818128622648</v>
+        <v>254.5179890858399</v>
       </c>
       <c r="D30" t="n">
-        <v>213.5935062212086</v>
+        <v>106.9296824447838</v>
       </c>
       <c r="E30" t="n">
-        <v>198.0855853484101</v>
+        <v>91.4217615719854</v>
       </c>
       <c r="F30" t="n">
-        <v>195.2314034893738</v>
+        <v>58.13316133361968</v>
       </c>
       <c r="G30" t="n">
         <v>58.13316133361968</v>
@@ -6564,28 +6564,28 @@
         <v>2161.629577505769</v>
       </c>
       <c r="R30" t="n">
-        <v>2161.629577505769</v>
+        <v>2084.538577504723</v>
       </c>
       <c r="S30" t="n">
-        <v>1996.51395759413</v>
+        <v>1919.422957593085</v>
       </c>
       <c r="T30" t="n">
-        <v>1797.332499183808</v>
+        <v>1720.241499182762</v>
       </c>
       <c r="U30" t="n">
-        <v>1570.425724798467</v>
+        <v>1493.334724797421</v>
       </c>
       <c r="V30" t="n">
-        <v>1336.174481324068</v>
+        <v>1259.083481323022</v>
       </c>
       <c r="W30" t="n">
-        <v>1083.659989657401</v>
+        <v>1006.568989656355</v>
       </c>
       <c r="X30" t="n">
-        <v>877.1330910629785</v>
+        <v>800.0420910619328</v>
       </c>
       <c r="Y30" t="n">
-        <v>671.4046552866289</v>
+        <v>594.3136552855832</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.2021042620822</v>
+        <v>157.2021042620814</v>
       </c>
       <c r="C31" t="n">
-        <v>130.2768912438004</v>
+        <v>130.2768912437997</v>
       </c>
       <c r="D31" t="n">
-        <v>121.8678261211579</v>
+        <v>121.8678261211573</v>
       </c>
       <c r="E31" t="n">
-        <v>115.5102179089399</v>
+        <v>115.5102179089394</v>
       </c>
       <c r="F31" t="n">
-        <v>109.9764508718679</v>
+        <v>109.9764508718676</v>
       </c>
       <c r="G31" t="n">
-        <v>82.74323677705146</v>
+        <v>82.74323677705122</v>
       </c>
       <c r="H31" t="n">
-        <v>63.80635531119246</v>
+        <v>63.80635531119234</v>
       </c>
       <c r="I31" t="n">
         <v>58.13316133361968</v>
       </c>
       <c r="J31" t="n">
-        <v>126.82279949281</v>
+        <v>58.13316133361968</v>
       </c>
       <c r="K31" t="n">
-        <v>280.0080996041811</v>
+        <v>181.0713248636003</v>
       </c>
       <c r="L31" t="n">
-        <v>492.8874492021934</v>
+        <v>393.9506744616126</v>
       </c>
       <c r="M31" t="n">
-        <v>581.0870952477783</v>
+        <v>482.1503205071975</v>
       </c>
       <c r="N31" t="n">
-        <v>811.6045988638141</v>
+        <v>573.3940380005611</v>
       </c>
       <c r="O31" t="n">
-        <v>920.8833550192281</v>
+        <v>781.6095688965538</v>
       </c>
       <c r="P31" t="n">
-        <v>956.6524463329505</v>
+        <v>956.6524463329486</v>
       </c>
       <c r="Q31" t="n">
-        <v>956.6524463329505</v>
+        <v>956.6524463329486</v>
       </c>
       <c r="R31" t="n">
-        <v>934.8803190635122</v>
+        <v>934.8803190635103</v>
       </c>
       <c r="S31" t="n">
-        <v>856.7461288505411</v>
+        <v>856.7461288505394</v>
       </c>
       <c r="T31" t="n">
-        <v>769.2797182375903</v>
+        <v>769.2797182375887</v>
       </c>
       <c r="U31" t="n">
-        <v>622.4533093424857</v>
+        <v>622.4533093424843</v>
       </c>
       <c r="V31" t="n">
-        <v>509.0636537628536</v>
+        <v>509.0636537628523</v>
       </c>
       <c r="W31" t="n">
-        <v>362.182860990821</v>
+        <v>362.1828609908198</v>
       </c>
       <c r="X31" t="n">
-        <v>275.8598631229362</v>
+        <v>275.8598631229352</v>
       </c>
       <c r="Y31" t="n">
-        <v>197.0032148151938</v>
+        <v>197.0032148151929</v>
       </c>
     </row>
     <row r="32">
@@ -6683,28 +6683,28 @@
         <v>1086.102367981805</v>
       </c>
       <c r="E32" t="n">
-        <v>841.2160612018207</v>
+        <v>841.2160612018212</v>
       </c>
       <c r="F32" t="n">
-        <v>571.9097264165302</v>
+        <v>571.9097264165307</v>
       </c>
       <c r="G32" t="n">
-        <v>295.5248338116662</v>
+        <v>295.5248338116667</v>
       </c>
       <c r="H32" t="n">
-        <v>101.7889025084676</v>
+        <v>101.788902508468</v>
       </c>
       <c r="I32" t="n">
         <v>58.13316133361968</v>
       </c>
       <c r="J32" t="n">
-        <v>243.2309915298704</v>
+        <v>243.230991529874</v>
       </c>
       <c r="K32" t="n">
-        <v>573.4597337924326</v>
+        <v>573.4597337924363</v>
       </c>
       <c r="L32" t="n">
-        <v>1001.599106522048</v>
+        <v>1001.599106522051</v>
       </c>
       <c r="M32" t="n">
         <v>1477.503810042797</v>
@@ -6725,7 +6725,7 @@
         <v>2906.658066680984</v>
       </c>
       <c r="S32" t="n">
-        <v>2853.547039353852</v>
+        <v>2853.547039353851</v>
       </c>
       <c r="T32" t="n">
         <v>2772.877140393502</v>
@@ -6740,7 +6740,7 @@
         <v>2259.286154943244</v>
       </c>
       <c r="X32" t="n">
-        <v>2026.78008717752</v>
+        <v>2026.780087177521</v>
       </c>
       <c r="Y32" t="n">
         <v>1778.288693532942</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1003.91418227275</v>
+        <v>646.4637122894152</v>
       </c>
       <c r="C33" t="n">
-        <v>831.1610671945671</v>
+        <v>473.7105972112324</v>
       </c>
       <c r="D33" t="n">
-        <v>683.5727605535109</v>
+        <v>326.1222905701762</v>
       </c>
       <c r="E33" t="n">
-        <v>525.9632315563656</v>
+        <v>310.6143696973778</v>
       </c>
       <c r="F33" t="n">
-        <v>381.0074415729824</v>
+        <v>195.2314034893738</v>
       </c>
       <c r="G33" t="n">
-        <v>243.9091994172283</v>
+        <v>58.13316133361968</v>
       </c>
       <c r="H33" t="n">
-        <v>135.2180307026975</v>
+        <v>58.13316133361968</v>
       </c>
       <c r="I33" t="n">
         <v>58.13316133361968</v>
@@ -6804,25 +6804,25 @@
         <v>2161.629577505769</v>
       </c>
       <c r="S33" t="n">
-        <v>1996.51395759413</v>
+        <v>2138.615565718477</v>
       </c>
       <c r="T33" t="n">
-        <v>1797.332499183808</v>
+        <v>1939.434107308155</v>
       </c>
       <c r="U33" t="n">
         <v>1712.527332922814</v>
       </c>
       <c r="V33" t="n">
-        <v>1551.523343183055</v>
+        <v>1478.276089448414</v>
       </c>
       <c r="W33" t="n">
-        <v>1299.008851516389</v>
+        <v>1225.761597781748</v>
       </c>
       <c r="X33" t="n">
-        <v>1234.583561046313</v>
+        <v>1019.234699187325</v>
       </c>
       <c r="Y33" t="n">
-        <v>1028.855125269964</v>
+        <v>813.5062634109756</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>157.2021042620824</v>
+        <v>157.202104262082</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2768912438005</v>
+        <v>130.2768912438002</v>
       </c>
       <c r="D34" t="n">
-        <v>121.867826121158</v>
+        <v>121.8678261211577</v>
       </c>
       <c r="E34" t="n">
-        <v>115.51021790894</v>
+        <v>115.5102179089397</v>
       </c>
       <c r="F34" t="n">
-        <v>109.976450871868</v>
+        <v>109.9764508718678</v>
       </c>
       <c r="G34" t="n">
-        <v>82.74323677705152</v>
+        <v>82.74323677705139</v>
       </c>
       <c r="H34" t="n">
-        <v>63.80635531119249</v>
+        <v>63.80635531119243</v>
       </c>
       <c r="I34" t="n">
         <v>58.13316133361968</v>
@@ -6859,49 +6859,49 @@
         <v>58.13316133361968</v>
       </c>
       <c r="K34" t="n">
-        <v>72.04467532231854</v>
+        <v>72.04467532231853</v>
       </c>
       <c r="L34" t="n">
-        <v>284.9240249203307</v>
+        <v>145.6502387976585</v>
       </c>
       <c r="M34" t="n">
-        <v>482.1503205072003</v>
+        <v>373.1236709659157</v>
       </c>
       <c r="N34" t="n">
-        <v>712.667824123236</v>
+        <v>492.5148649129021</v>
       </c>
       <c r="O34" t="n">
-        <v>920.8833550192286</v>
+        <v>700.7303958088947</v>
       </c>
       <c r="P34" t="n">
-        <v>956.6524463329509</v>
+        <v>875.7732732452894</v>
       </c>
       <c r="Q34" t="n">
-        <v>956.6524463329509</v>
+        <v>956.6524463329501</v>
       </c>
       <c r="R34" t="n">
-        <v>934.8803190635126</v>
+        <v>934.8803190635118</v>
       </c>
       <c r="S34" t="n">
-        <v>856.7461288505415</v>
+        <v>856.7461288505408</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2797182375906</v>
+        <v>769.2797182375899</v>
       </c>
       <c r="U34" t="n">
-        <v>622.453309342486</v>
+        <v>622.4533093424855</v>
       </c>
       <c r="V34" t="n">
-        <v>509.0636537628538</v>
+        <v>509.0636537628533</v>
       </c>
       <c r="W34" t="n">
-        <v>362.1828609908213</v>
+        <v>362.1828609908208</v>
       </c>
       <c r="X34" t="n">
-        <v>275.8598631229364</v>
+        <v>275.859863122936</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.0032148151941</v>
+        <v>197.0032148151936</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>42.06764860393186</v>
       </c>
       <c r="J35" t="n">
-        <v>87.89169267751042</v>
+        <v>171.4898360148714</v>
       </c>
       <c r="K35" t="n">
-        <v>447.7384587444919</v>
+        <v>362.4447921547614</v>
       </c>
       <c r="L35" t="n">
-        <v>927.9319493574295</v>
+        <v>651.310378761704</v>
       </c>
       <c r="M35" t="n">
-        <v>1264.562866755503</v>
+        <v>987.9412961597778</v>
       </c>
       <c r="N35" t="n">
-        <v>1591.123649341597</v>
+        <v>1314.502078745872</v>
       </c>
       <c r="O35" t="n">
-        <v>1853.357384801292</v>
+        <v>1768.063718211561</v>
       </c>
       <c r="P35" t="n">
-        <v>2040.229017856245</v>
+        <v>1954.935351266514</v>
       </c>
       <c r="Q35" t="n">
-        <v>2103.382430196593</v>
+        <v>2018.088763606862</v>
       </c>
       <c r="R35" t="n">
         <v>2103.382430196593</v>
@@ -6971,7 +6971,7 @@
         <v>2017.062948356277</v>
       </c>
       <c r="V35" t="n">
-        <v>1880.423844896121</v>
+        <v>1880.42384489612</v>
       </c>
       <c r="W35" t="n">
         <v>1721.565655094515</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>802.0726314594533</v>
+        <v>611.2305767675308</v>
       </c>
       <c r="C36" t="n">
-        <v>629.3195163812704</v>
+        <v>438.477461689348</v>
       </c>
       <c r="D36" t="n">
-        <v>481.7312097402144</v>
+        <v>290.8891550482919</v>
       </c>
       <c r="E36" t="n">
-        <v>324.1216807430691</v>
+        <v>290.8891550482919</v>
       </c>
       <c r="F36" t="n">
-        <v>179.165890759686</v>
+        <v>145.9333650649087</v>
       </c>
       <c r="G36" t="n">
         <v>42.06764860393186</v>
@@ -7020,13 +7020,13 @@
         <v>263.6957553587487</v>
       </c>
       <c r="L36" t="n">
-        <v>575.389665847279</v>
+        <v>533.2080312677905</v>
       </c>
       <c r="M36" t="n">
-        <v>991.9219518101407</v>
+        <v>949.7403172306522</v>
       </c>
       <c r="N36" t="n">
-        <v>1434.877339955372</v>
+        <v>1392.695705375883</v>
       </c>
       <c r="O36" t="n">
         <v>1730.285328476234</v>
@@ -7038,28 +7038,28 @@
         <v>2103.382430196593</v>
       </c>
       <c r="R36" t="n">
-        <v>2026.291430195547</v>
+        <v>2103.382430196593</v>
       </c>
       <c r="S36" t="n">
-        <v>2026.291430195547</v>
+        <v>2103.382430196593</v>
       </c>
       <c r="T36" t="n">
-        <v>1899.830391026713</v>
+        <v>1904.20097178627</v>
       </c>
       <c r="U36" t="n">
-        <v>1672.923616641372</v>
+        <v>1677.294197400929</v>
       </c>
       <c r="V36" t="n">
-        <v>1438.672373166973</v>
+        <v>1443.04295392653</v>
       </c>
       <c r="W36" t="n">
-        <v>1381.370516951786</v>
+        <v>1190.528462259863</v>
       </c>
       <c r="X36" t="n">
-        <v>1174.843618357363</v>
+        <v>984.0015636654408</v>
       </c>
       <c r="Y36" t="n">
-        <v>969.1151825810138</v>
+        <v>778.2731278890913</v>
       </c>
     </row>
     <row r="37">
@@ -7120,22 +7120,22 @@
         <v>413.7389256939618</v>
       </c>
       <c r="S37" t="n">
-        <v>388.7157628081233</v>
+        <v>388.7157628081234</v>
       </c>
       <c r="T37" t="n">
-        <v>354.360379522305</v>
+        <v>354.3603795223051</v>
       </c>
       <c r="U37" t="n">
-        <v>260.644997954333</v>
+        <v>260.6449979543332</v>
       </c>
       <c r="V37" t="n">
-        <v>194.7950055701939</v>
+        <v>200.3663697018336</v>
       </c>
       <c r="W37" t="n">
-        <v>101.0252401252939</v>
+        <v>106.5966042569336</v>
       </c>
       <c r="X37" t="n">
-        <v>67.81326958454164</v>
+        <v>67.81326958454162</v>
       </c>
       <c r="Y37" t="n">
         <v>42.06764860393186</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1154.410550465317</v>
+        <v>1154.410550465316</v>
       </c>
       <c r="C38" t="n">
-        <v>978.9311700794801</v>
+        <v>978.9311700794796</v>
       </c>
       <c r="D38" t="n">
-        <v>813.9370047687389</v>
+        <v>813.9370047687383</v>
       </c>
       <c r="E38" t="n">
-        <v>622.1617253158875</v>
+        <v>622.1617253158869</v>
       </c>
       <c r="F38" t="n">
-        <v>405.9664178577295</v>
+        <v>405.966417857729</v>
       </c>
       <c r="G38" t="n">
         <v>182.6925525799978</v>
@@ -7172,13 +7172,13 @@
         <v>42.06764860393186</v>
       </c>
       <c r="J38" t="n">
-        <v>279.2195966835053</v>
+        <v>87.89169267751042</v>
       </c>
       <c r="K38" t="n">
-        <v>470.1745528233953</v>
+        <v>278.8466488174004</v>
       </c>
       <c r="L38" t="n">
-        <v>759.0401394303378</v>
+        <v>759.0401394303379</v>
       </c>
       <c r="M38" t="n">
         <v>1264.562866755503</v>
@@ -7202,22 +7202,22 @@
         <v>2103.382430196593</v>
       </c>
       <c r="T38" t="n">
-        <v>2075.823558563376</v>
+        <v>2075.823558563375</v>
       </c>
       <c r="U38" t="n">
-        <v>2017.062948356278</v>
+        <v>2017.062948356277</v>
       </c>
       <c r="V38" t="n">
-        <v>1880.423844896121</v>
+        <v>1880.42384489612</v>
       </c>
       <c r="W38" t="n">
-        <v>1721.565655094515</v>
+        <v>1721.565655094514</v>
       </c>
       <c r="X38" t="n">
-        <v>1542.170614655925</v>
+        <v>1542.170614655924</v>
       </c>
       <c r="Y38" t="n">
-        <v>1346.790248338479</v>
+        <v>1346.790248338478</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>806.4432122190102</v>
+        <v>520.0185993203161</v>
       </c>
       <c r="C39" t="n">
-        <v>633.6900971408274</v>
+        <v>347.2654842421333</v>
       </c>
       <c r="D39" t="n">
-        <v>486.1017904997713</v>
+        <v>199.6771776010772</v>
       </c>
       <c r="E39" t="n">
-        <v>328.492261502626</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="F39" t="n">
-        <v>183.5364715192428</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="G39" t="n">
-        <v>46.43822936348874</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="H39" t="n">
-        <v>46.43822936348874</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="I39" t="n">
         <v>42.06764860393186</v>
       </c>
       <c r="J39" t="n">
-        <v>77.14218050990728</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="K39" t="n">
-        <v>263.6957553587487</v>
+        <v>228.6212234527732</v>
       </c>
       <c r="L39" t="n">
-        <v>575.389665847279</v>
+        <v>540.3151339413037</v>
       </c>
       <c r="M39" t="n">
-        <v>991.9219518101407</v>
+        <v>956.8474199041653</v>
       </c>
       <c r="N39" t="n">
-        <v>1434.877339955372</v>
+        <v>1399.802808049396</v>
       </c>
       <c r="O39" t="n">
-        <v>1772.466963055722</v>
+        <v>1737.392431149747</v>
       </c>
       <c r="P39" t="n">
-        <v>1984.804222362486</v>
+        <v>1991.911325035999</v>
       </c>
       <c r="Q39" t="n">
         <v>2103.382430196593</v>
       </c>
       <c r="R39" t="n">
-        <v>2103.382430196593</v>
+        <v>2026.291430195547</v>
       </c>
       <c r="S39" t="n">
-        <v>2103.382430196593</v>
+        <v>2012.170452749378</v>
       </c>
       <c r="T39" t="n">
-        <v>1904.20097178627</v>
+        <v>1812.988994339056</v>
       </c>
       <c r="U39" t="n">
-        <v>1677.294197400929</v>
+        <v>1586.082219953714</v>
       </c>
       <c r="V39" t="n">
-        <v>1443.04295392653</v>
+        <v>1351.830976479315</v>
       </c>
       <c r="W39" t="n">
-        <v>1190.528462259863</v>
+        <v>1099.316484812648</v>
       </c>
       <c r="X39" t="n">
-        <v>984.0015636654408</v>
+        <v>892.7895862182261</v>
       </c>
       <c r="Y39" t="n">
-        <v>973.4857633405707</v>
+        <v>687.0611504418765</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.63901273557136</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="C40" t="n">
-        <v>47.63901273557136</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="D40" t="n">
-        <v>47.63901273557136</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="E40" t="n">
         <v>42.06764860393186</v>
@@ -7357,25 +7357,25 @@
         <v>413.7389256939618</v>
       </c>
       <c r="S40" t="n">
-        <v>388.7157628081233</v>
+        <v>388.7157628081234</v>
       </c>
       <c r="T40" t="n">
-        <v>354.360379522305</v>
+        <v>348.7890153906653</v>
       </c>
       <c r="U40" t="n">
-        <v>260.644997954333</v>
+        <v>255.0736338226934</v>
       </c>
       <c r="V40" t="n">
-        <v>200.3663697018334</v>
+        <v>194.7950055701938</v>
       </c>
       <c r="W40" t="n">
-        <v>106.5966042569334</v>
+        <v>101.0252401252938</v>
       </c>
       <c r="X40" t="n">
-        <v>73.38463371618114</v>
+        <v>67.81326958454162</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.63901273557136</v>
+        <v>42.06764860393186</v>
       </c>
     </row>
     <row r="41">
@@ -7412,16 +7412,16 @@
         <v>87.89169267751042</v>
       </c>
       <c r="K41" t="n">
-        <v>447.7384587444922</v>
+        <v>278.8466488174004</v>
       </c>
       <c r="L41" t="n">
-        <v>736.6040453514348</v>
+        <v>743.9757152818466</v>
       </c>
       <c r="M41" t="n">
-        <v>1073.234962749509</v>
+        <v>1264.562866755503</v>
       </c>
       <c r="N41" t="n">
-        <v>1399.795745335603</v>
+        <v>1591.123649341597</v>
       </c>
       <c r="O41" t="n">
         <v>1853.357384801292</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>738.0106850958014</v>
+        <v>654.4843248183972</v>
       </c>
       <c r="C42" t="n">
-        <v>738.0106850958014</v>
+        <v>481.7312097402144</v>
       </c>
       <c r="D42" t="n">
-        <v>590.4223784547452</v>
+        <v>481.7312097402144</v>
       </c>
       <c r="E42" t="n">
-        <v>432.8128494575999</v>
+        <v>324.1216807430691</v>
       </c>
       <c r="F42" t="n">
-        <v>287.8570594742167</v>
+        <v>179.165890759686</v>
       </c>
       <c r="G42" t="n">
-        <v>150.7588173184627</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="H42" t="n">
         <v>42.06764860393186</v>
@@ -7491,10 +7491,10 @@
         <v>77.14218050990728</v>
       </c>
       <c r="K42" t="n">
-        <v>263.6957553587487</v>
+        <v>221.5141207792601</v>
       </c>
       <c r="L42" t="n">
-        <v>575.389665847279</v>
+        <v>533.2080312677905</v>
       </c>
       <c r="M42" t="n">
         <v>949.7403172306522</v>
@@ -7512,28 +7512,28 @@
         <v>2103.382430196593</v>
       </c>
       <c r="R42" t="n">
-        <v>2103.382430196593</v>
+        <v>2026.291430195547</v>
       </c>
       <c r="S42" t="n">
-        <v>2103.382430196593</v>
+        <v>1861.175810283908</v>
       </c>
       <c r="T42" t="n">
-        <v>1904.20097178627</v>
+        <v>1661.994351873586</v>
       </c>
       <c r="U42" t="n">
-        <v>1804.0743057292</v>
+        <v>1435.087577488245</v>
       </c>
       <c r="V42" t="n">
-        <v>1569.823062254801</v>
+        <v>1200.836334013846</v>
       </c>
       <c r="W42" t="n">
-        <v>1317.308570588134</v>
+        <v>948.3218423471789</v>
       </c>
       <c r="X42" t="n">
-        <v>1110.781671993711</v>
+        <v>741.7949437527564</v>
       </c>
       <c r="Y42" t="n">
-        <v>905.0532362173618</v>
+        <v>654.4843248183972</v>
       </c>
     </row>
     <row r="43">
@@ -7588,31 +7588,31 @@
         <v>413.7389256939618</v>
       </c>
       <c r="Q43" t="n">
-        <v>413.7389256939618</v>
+        <v>408.167561562322</v>
       </c>
       <c r="R43" t="n">
-        <v>413.7389256939618</v>
+        <v>408.167561562322</v>
       </c>
       <c r="S43" t="n">
-        <v>388.7157628081234</v>
+        <v>383.1443986764835</v>
       </c>
       <c r="T43" t="n">
-        <v>354.3603795223051</v>
+        <v>348.7890153906653</v>
       </c>
       <c r="U43" t="n">
-        <v>260.6449979543332</v>
+        <v>255.0736338226934</v>
       </c>
       <c r="V43" t="n">
-        <v>200.3663697018336</v>
+        <v>194.7950055701938</v>
       </c>
       <c r="W43" t="n">
-        <v>106.5966042569336</v>
+        <v>101.0252401252938</v>
       </c>
       <c r="X43" t="n">
-        <v>73.38463371618143</v>
+        <v>67.81326958454162</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.63901273557168</v>
+        <v>42.06764860393186</v>
       </c>
     </row>
     <row r="44">
@@ -7661,13 +7661,13 @@
         <v>1422.231839414506</v>
       </c>
       <c r="O44" t="n">
-        <v>1853.357384801292</v>
+        <v>1768.063718211561</v>
       </c>
       <c r="P44" t="n">
-        <v>2040.229017856245</v>
+        <v>1954.935351266514</v>
       </c>
       <c r="Q44" t="n">
-        <v>2103.382430196593</v>
+        <v>2018.088763606862</v>
       </c>
       <c r="R44" t="n">
         <v>2103.382430196593</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>802.0726314594533</v>
+        <v>664.9743893036992</v>
       </c>
       <c r="C45" t="n">
-        <v>629.3195163812704</v>
+        <v>492.2212742255164</v>
       </c>
       <c r="D45" t="n">
-        <v>481.7312097402144</v>
+        <v>344.6329675844603</v>
       </c>
       <c r="E45" t="n">
-        <v>324.1216807430691</v>
+        <v>187.023438587315</v>
       </c>
       <c r="F45" t="n">
-        <v>179.165890759686</v>
+        <v>42.06764860393186</v>
       </c>
       <c r="G45" t="n">
         <v>42.06764860393186</v>
@@ -7749,28 +7749,28 @@
         <v>2103.382430196593</v>
       </c>
       <c r="R45" t="n">
-        <v>2103.382430196593</v>
+        <v>2026.291430195547</v>
       </c>
       <c r="S45" t="n">
-        <v>2099.011849437036</v>
+        <v>1861.175810283908</v>
       </c>
       <c r="T45" t="n">
-        <v>1899.830391026713</v>
+        <v>1661.994351873586</v>
       </c>
       <c r="U45" t="n">
-        <v>1672.923616641372</v>
+        <v>1435.087577488245</v>
       </c>
       <c r="V45" t="n">
-        <v>1438.672373166973</v>
+        <v>1200.836334013846</v>
       </c>
       <c r="W45" t="n">
-        <v>1381.370516951786</v>
+        <v>948.3218423471789</v>
       </c>
       <c r="X45" t="n">
-        <v>1174.843618357363</v>
+        <v>842.5327407501298</v>
       </c>
       <c r="Y45" t="n">
-        <v>969.1151825810138</v>
+        <v>832.0169404252597</v>
       </c>
     </row>
     <row r="46">
@@ -7831,10 +7831,10 @@
         <v>413.738925693962</v>
       </c>
       <c r="S46" t="n">
-        <v>388.7157628081234</v>
+        <v>383.1443986764839</v>
       </c>
       <c r="T46" t="n">
-        <v>354.3603795223051</v>
+        <v>348.7890153906656</v>
       </c>
       <c r="U46" t="n">
         <v>255.0736338226936</v>
@@ -8690,25 +8690,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740114</v>
+        <v>238.913893807506</v>
       </c>
       <c r="L11" t="n">
-        <v>343.4031514384726</v>
+        <v>142.5842423173748</v>
       </c>
       <c r="M11" t="n">
-        <v>328.2817542586196</v>
+        <v>328.2817542586195</v>
       </c>
       <c r="N11" t="n">
         <v>124.9814250388739</v>
       </c>
       <c r="O11" t="n">
-        <v>285.5028430806965</v>
+        <v>331.9685365639547</v>
       </c>
       <c r="P11" t="n">
-        <v>145.9114311903081</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>157.01626468999</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,25 +8766,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>95.7058566469793</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>271.650534409897</v>
+        <v>70.83162528879916</v>
       </c>
       <c r="M12" t="n">
-        <v>63.59358350923053</v>
+        <v>264.4124926303282</v>
       </c>
       <c r="N12" t="n">
-        <v>51.08638432211271</v>
+        <v>136.3963853443165</v>
       </c>
       <c r="O12" t="n">
-        <v>118.4983736696736</v>
+        <v>68.61719275451547</v>
       </c>
       <c r="P12" t="n">
-        <v>274.9303967023368</v>
+        <v>274.9303967023367</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -8924,22 +8924,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>129.5735665733218</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>144.2274349933144</v>
       </c>
       <c r="L14" t="n">
-        <v>154.4651458528156</v>
+        <v>343.4031514384725</v>
       </c>
       <c r="M14" t="n">
-        <v>328.2817542586196</v>
+        <v>127.4628451375217</v>
       </c>
       <c r="N14" t="n">
-        <v>325.8003341599717</v>
+        <v>325.8003341599716</v>
       </c>
       <c r="O14" t="n">
-        <v>131.1496274428569</v>
+        <v>289.6274118533594</v>
       </c>
       <c r="P14" t="n">
         <v>334.6706564983419</v>
@@ -9009,22 +9009,22 @@
         <v>86.60589210031273</v>
       </c>
       <c r="L15" t="n">
-        <v>271.650534409897</v>
+        <v>271.6505344098969</v>
       </c>
       <c r="M15" t="n">
-        <v>264.4124926303284</v>
+        <v>264.4124926303282</v>
       </c>
       <c r="N15" t="n">
-        <v>51.08638432211271</v>
+        <v>208.3625780181404</v>
       </c>
       <c r="O15" t="n">
-        <v>269.4361018756133</v>
+        <v>68.61719275451547</v>
       </c>
       <c r="P15" t="n">
-        <v>111.6117137680683</v>
+        <v>274.9303967023367</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>98.70441173608467</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>133.5193550683617</v>
+        <v>129.5735665733218</v>
       </c>
       <c r="K17" t="n">
-        <v>144.2274349933144</v>
+        <v>273.141123200077</v>
       </c>
       <c r="L17" t="n">
-        <v>343.4031514384726</v>
+        <v>343.4031514384725</v>
       </c>
       <c r="M17" t="n">
-        <v>328.2817542586196</v>
+        <v>328.2817542586195</v>
       </c>
       <c r="N17" t="n">
-        <v>325.8003341599717</v>
+        <v>124.9814250388739</v>
       </c>
       <c r="O17" t="n">
-        <v>131.1496274428569</v>
+        <v>331.9685365639547</v>
       </c>
       <c r="P17" t="n">
-        <v>334.6706564983419</v>
+        <v>145.9114311903081</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.01626468999</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,28 +9240,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>95.7058566469793</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>86.60589210031273</v>
       </c>
       <c r="L18" t="n">
-        <v>271.650534409897</v>
+        <v>263.5366390918727</v>
       </c>
       <c r="M18" t="n">
-        <v>264.4124926303284</v>
+        <v>264.4124926303282</v>
       </c>
       <c r="N18" t="n">
-        <v>51.08638432211271</v>
+        <v>251.9052934432104</v>
       </c>
       <c r="O18" t="n">
-        <v>68.61719275451547</v>
+        <v>269.4361018756132</v>
       </c>
       <c r="P18" t="n">
-        <v>123.9926684963971</v>
+        <v>74.111487581239</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>98.70441173608467</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>141.4544701087623</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
-        <v>343.4031514384726</v>
+        <v>343.4031514384725</v>
       </c>
       <c r="M20" t="n">
-        <v>328.2817542586196</v>
+        <v>127.4628451375217</v>
       </c>
       <c r="N20" t="n">
-        <v>124.9814250388739</v>
+        <v>325.8003341599716</v>
       </c>
       <c r="O20" t="n">
         <v>131.1496274428569</v>
       </c>
       <c r="P20" t="n">
-        <v>300.2646468281478</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
         <v>157.01626468999</v>
@@ -9480,22 +9480,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>86.60589210031273</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>271.650534409897</v>
+        <v>271.6505344098969</v>
       </c>
       <c r="M21" t="n">
-        <v>264.4124926303284</v>
+        <v>113.4747644243884</v>
       </c>
       <c r="N21" t="n">
-        <v>88.58661050894202</v>
+        <v>251.9052934432104</v>
       </c>
       <c r="O21" t="n">
         <v>68.61719275451547</v>
       </c>
       <c r="P21" t="n">
-        <v>274.9303967023368</v>
+        <v>74.111487581239</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9638,25 +9638,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1112290740114</v>
+        <v>144.2274349933144</v>
       </c>
       <c r="L23" t="n">
-        <v>142.5842423173748</v>
+        <v>301.0620267278773</v>
       </c>
       <c r="M23" t="n">
-        <v>230.0844189921143</v>
+        <v>127.4628451375217</v>
       </c>
       <c r="N23" t="n">
         <v>325.8003341599716</v>
       </c>
       <c r="O23" t="n">
-        <v>131.1496274428569</v>
+        <v>331.9685365639547</v>
       </c>
       <c r="P23" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
-        <v>220.8075902863009</v>
+        <v>157.01626468999</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,7 +9714,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>95.7058566469793</v>
       </c>
       <c r="K24" t="n">
         <v>86.60589210031273</v>
@@ -9723,19 +9723,19 @@
         <v>271.6505344098969</v>
       </c>
       <c r="M24" t="n">
-        <v>63.59358350923053</v>
+        <v>264.4124926303282</v>
       </c>
       <c r="N24" t="n">
-        <v>251.9052934432104</v>
+        <v>51.08638432211271</v>
       </c>
       <c r="O24" t="n">
-        <v>269.4361018756132</v>
+        <v>261.322206557589</v>
       </c>
       <c r="P24" t="n">
-        <v>111.6117137680683</v>
+        <v>274.9303967023367</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>98.70441173608467</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10668,7 +10668,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>343.0662474191444</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10677,7 +10677,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O36" t="n">
-        <v>367.0091003513456</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>95.7058566469793</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10917,10 +10917,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>288.5935676890817</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>211.301487655876</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11139,13 +11139,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>232.4361347966287</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>441.7255546035469</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
         <v>498.5160693172957</v>
@@ -23261,22 +23261,22 @@
         <v>186.8905980212791</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>176.5102350969349</v>
       </c>
       <c r="E11" t="n">
-        <v>203.0235380976239</v>
+        <v>2.204628976526237</v>
       </c>
       <c r="F11" t="n">
         <v>227.1993658228773</v>
       </c>
       <c r="G11" t="n">
-        <v>33.38822894315737</v>
+        <v>234.2071380642552</v>
       </c>
       <c r="H11" t="n">
         <v>152.3846663756063</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.805278148539621</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>13.166011439301</v>
       </c>
       <c r="T11" t="n">
-        <v>40.4492943561861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>42.91064118570836</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>170.4356193428911</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>190.7671014735059</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.16671335217211</v>
+        <v>206.5925740935723</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.686693328533323</v>
+        <v>203.6219123337316</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>186.8905980212791</v>
       </c>
       <c r="D14" t="n">
-        <v>176.5102350969348</v>
+        <v>176.5102350969349</v>
       </c>
       <c r="E14" t="n">
-        <v>2.204628976526067</v>
+        <v>40.23032863425142</v>
       </c>
       <c r="F14" t="n">
-        <v>227.1993658228773</v>
+        <v>227.1993658228774</v>
       </c>
       <c r="G14" t="n">
-        <v>234.2071380642551</v>
+        <v>234.2071380642552</v>
       </c>
       <c r="H14" t="n">
-        <v>152.3846663756063</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.805278148539649</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.16601143930094</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.33901554432788</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>170.435619342891</v>
+        <v>170.4356193428911</v>
       </c>
       <c r="X14" t="n">
-        <v>190.7671014735058</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.5925740935722</v>
+        <v>206.5925740935723</v>
       </c>
     </row>
     <row r="15">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837110.0826997902</v>
+        <v>837110.0826997901</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>771548.5588679536</v>
+      </c>
+      <c r="C2" t="n">
         <v>771548.5588679538</v>
       </c>
-      <c r="C2" t="n">
-        <v>771548.5588679534</v>
-      </c>
       <c r="D2" t="n">
-        <v>771548.558867954</v>
+        <v>771548.5588679535</v>
       </c>
       <c r="E2" t="n">
         <v>663612.7737765883</v>
       </c>
       <c r="F2" t="n">
-        <v>663612.773776589</v>
+        <v>663612.7737765885</v>
       </c>
       <c r="G2" t="n">
-        <v>773223.4381841897</v>
+        <v>773223.4381841895</v>
       </c>
       <c r="H2" t="n">
-        <v>773223.4381841895</v>
+        <v>773223.4381841896</v>
       </c>
       <c r="I2" t="n">
-        <v>773223.4381841895</v>
+        <v>773223.4381841898</v>
       </c>
       <c r="J2" t="n">
         <v>773223.4381841895</v>
       </c>
       <c r="K2" t="n">
-        <v>773223.4381841894</v>
+        <v>773223.4381841897</v>
       </c>
       <c r="L2" t="n">
-        <v>773223.438184189</v>
+        <v>773223.4381841893</v>
       </c>
       <c r="M2" t="n">
-        <v>773223.4381841904</v>
+        <v>773223.4381841902</v>
       </c>
       <c r="N2" t="n">
+        <v>773223.4381841905</v>
+      </c>
+      <c r="O2" t="n">
+        <v>773223.4381841903</v>
+      </c>
+      <c r="P2" t="n">
         <v>773223.4381841901</v>
-      </c>
-      <c r="O2" t="n">
-        <v>773223.43818419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>773223.4381841903</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>314576.7352757243</v>
+        <v>314576.7352757242</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96053.34182327101</v>
+        <v>96053.34182327108</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>96053.341823271</v>
+        <v>96053.34182327101</v>
       </c>
       <c r="M3" t="n">
-        <v>42063.93364308901</v>
+        <v>42063.93364308899</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>334851.6207644779</v>
       </c>
       <c r="F4" t="n">
-        <v>334851.620764478</v>
+        <v>334851.6207644779</v>
       </c>
       <c r="G4" t="n">
         <v>400679.2424625544</v>
@@ -26439,13 +26439,13 @@
         <v>400679.2424625544</v>
       </c>
       <c r="J4" t="n">
+        <v>394510.0374381137</v>
+      </c>
+      <c r="K4" t="n">
         <v>394510.0374381136</v>
       </c>
-      <c r="K4" t="n">
-        <v>394510.0374381137</v>
-      </c>
       <c r="L4" t="n">
-        <v>394510.0374381134</v>
+        <v>394510.0374381136</v>
       </c>
       <c r="M4" t="n">
         <v>393636.5646292798</v>
@@ -26454,10 +26454,10 @@
         <v>393636.5646292798</v>
       </c>
       <c r="O4" t="n">
-        <v>393636.5646292799</v>
+        <v>393636.5646292798</v>
       </c>
       <c r="P4" t="n">
-        <v>393636.5646292798</v>
+        <v>393636.5646292797</v>
       </c>
     </row>
     <row r="5">
@@ -26479,22 +26479,22 @@
         <v>30349.63798073435</v>
       </c>
       <c r="F5" t="n">
-        <v>30349.63798073435</v>
+        <v>30349.63798073434</v>
       </c>
       <c r="G5" t="n">
-        <v>40443.52347291007</v>
+        <v>40443.52347291006</v>
       </c>
       <c r="H5" t="n">
-        <v>40443.52347291007</v>
+        <v>40443.52347291006</v>
       </c>
       <c r="I5" t="n">
-        <v>40443.52347291007</v>
+        <v>40443.52347291006</v>
       </c>
       <c r="J5" t="n">
         <v>59007.5632886121</v>
       </c>
       <c r="K5" t="n">
-        <v>59007.5632886121</v>
+        <v>59007.56328861211</v>
       </c>
       <c r="L5" t="n">
         <v>59007.5632886121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>289385.5111433754</v>
+        <v>289381.1035662272</v>
       </c>
       <c r="C6" t="n">
-        <v>289385.511143375</v>
+        <v>289381.1035662274</v>
       </c>
       <c r="D6" t="n">
-        <v>289385.5111433755</v>
+        <v>289381.1035662271</v>
       </c>
       <c r="E6" t="n">
-        <v>-16165.22024434823</v>
+        <v>-16453.66936121028</v>
       </c>
       <c r="F6" t="n">
-        <v>298411.5150313766</v>
+        <v>298123.0659145141</v>
       </c>
       <c r="G6" t="n">
-        <v>236047.3304254543</v>
+        <v>236047.330425454</v>
       </c>
       <c r="H6" t="n">
-        <v>332100.672248725</v>
+        <v>332100.6722487252</v>
       </c>
       <c r="I6" t="n">
-        <v>332100.6722487251</v>
+        <v>332100.6722487254</v>
       </c>
       <c r="J6" t="n">
         <v>165630.3575046628</v>
       </c>
       <c r="K6" t="n">
-        <v>319705.8374574636</v>
+        <v>319705.837457464</v>
       </c>
       <c r="L6" t="n">
         <v>223652.4956341925</v>
       </c>
       <c r="M6" t="n">
-        <v>286304.8252509711</v>
+        <v>286304.8252509709</v>
       </c>
       <c r="N6" t="n">
+        <v>328368.7588940603</v>
+      </c>
+      <c r="O6" t="n">
+        <v>311877.6270828485</v>
+      </c>
+      <c r="P6" t="n">
         <v>328368.7588940599</v>
-      </c>
-      <c r="O6" t="n">
-        <v>311877.627082848</v>
-      </c>
-      <c r="P6" t="n">
-        <v>328368.7588940601</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>180.0944976576635</v>
       </c>
       <c r="F2" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="G2" t="n">
         <v>300.1611749367523</v>
@@ -26710,16 +26710,16 @@
         <v>140.6805920431033</v>
       </c>
       <c r="K2" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="L2" t="n">
         <v>140.6805920431033</v>
       </c>
       <c r="M2" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="N2" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="O2" t="n">
         <v>193.2605090969646</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="F4" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="G4" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="H4" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="I4" t="n">
         <v>200.8189091210977</v>
       </c>
       <c r="J4" t="n">
-        <v>726.664516670246</v>
+        <v>726.6645166702459</v>
       </c>
       <c r="K4" t="n">
-        <v>726.664516670246</v>
+        <v>726.6645166702459</v>
       </c>
       <c r="L4" t="n">
-        <v>726.664516670246</v>
+        <v>726.6645166702459</v>
       </c>
       <c r="M4" t="n">
         <v>525.8456075491482</v>
@@ -26917,10 +26917,10 @@
         <v>180.0944976576635</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>120.0666772790888</v>
+        <v>120.0666772790889</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.61391476401448</v>
+        <v>20.61391476401451</v>
       </c>
       <c r="K2" t="n">
         <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>120.0666772790887</v>
+        <v>120.0666772790888</v>
       </c>
       <c r="M2" t="n">
-        <v>52.57991705386127</v>
+        <v>52.57991705386124</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>525.8456075491483</v>
+        <v>525.8456075491482</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>180.0944976576635</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.0666772790888</v>
+        <v>120.0666772790889</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.61391476401448</v>
+        <v>20.61391476401451</v>
       </c>
       <c r="P2" t="n">
         <v>6.926151959655375e-14</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>107.5968773079097</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -28217,7 +28217,7 @@
         <v>76.32009000103544</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>163.4644637125223</v>
       </c>
       <c r="T12" t="n">
         <v>180.0944976576635</v>
@@ -28229,13 +28229,13 @@
         <v>180.0944976576635</v>
       </c>
       <c r="W12" t="n">
-        <v>180.0944976576635</v>
+        <v>49.17043762890233</v>
       </c>
       <c r="X12" t="n">
-        <v>116.9177215089934</v>
+        <v>3.642720487380558</v>
       </c>
       <c r="Y12" t="n">
-        <v>180.0944976576635</v>
+        <v>2.852242297488317</v>
       </c>
     </row>
     <row r="13">
@@ -28254,7 +28254,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
@@ -28272,10 +28272,10 @@
         <v>71.29711915503229</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>55.28582959153209</v>
       </c>
       <c r="L13" t="n">
-        <v>88.40570307599643</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="C14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="D14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="E14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="F14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="G14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="H14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="I14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>107.1052903194586</v>
       </c>
       <c r="S14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="T14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="U14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="V14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="W14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="X14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
@@ -28415,13 +28415,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>135.7272597341965</v>
       </c>
       <c r="H15" t="n">
-        <v>51.33152921979974</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I15" t="n">
         <v>76.31402067538706</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>76.32009000103544</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>163.4644637125223</v>
       </c>
       <c r="T15" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="U15" t="n">
-        <v>180.0944976576636</v>
+        <v>23.81879752038998</v>
       </c>
       <c r="V15" t="n">
-        <v>180.0944976576636</v>
+        <v>31.08982191855742</v>
       </c>
       <c r="W15" t="n">
-        <v>180.0944976576636</v>
+        <v>49.17043762890233</v>
       </c>
       <c r="X15" t="n">
-        <v>180.0944976576636</v>
+        <v>144.5722243851294</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.852242297488203</v>
+        <v>180.0944976576635</v>
       </c>
     </row>
     <row r="16">
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>88.40570307599597</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>88.40570307599657</v>
       </c>
       <c r="Q16" t="n">
         <v>58.98445761112279</v>
@@ -28533,25 +28533,25 @@
         <v>162.2349980398473</v>
       </c>
       <c r="S16" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="T16" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="U16" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="V16" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="W16" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="X16" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.0944976576636</v>
+        <v>180.0944976576635</v>
       </c>
     </row>
     <row r="17">
@@ -28646,19 +28646,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>81.67465993340657</v>
       </c>
       <c r="F18" t="n">
-        <v>15.89344311574111</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.7272597341965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I18" t="n">
         <v>76.31402067538706</v>
@@ -28691,13 +28691,13 @@
         <v>76.32009000103544</v>
       </c>
       <c r="S18" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6377066414877</v>
+        <v>23.81879752038997</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -28709,7 +28709,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.852242297488203</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.745225341725</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -28728,13 +28728,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.6414739969716</v>
       </c>
       <c r="H19" t="n">
         <v>159.4281046943037</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.98445761112279</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>162.2349980398473</v>
+        <v>54.08380045293812</v>
       </c>
       <c r="S19" t="n">
         <v>218.0334403539447</v>
@@ -28782,7 +28782,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>85.27366776631783</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>159.5164143838831</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -28892,7 +28892,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>104.9583881549793</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H21" t="n">
         <v>107.6042570273855</v>
@@ -28934,19 +28934,19 @@
         <v>197.1896438262193</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6377066414877</v>
+        <v>23.81879752038997</v>
       </c>
       <c r="V21" t="n">
-        <v>31.08982191855731</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>49.17043762890222</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>3.642720487380444</v>
+        <v>3.642720487380558</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>2.852242297488317</v>
       </c>
     </row>
     <row r="22">
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>71.93249390377467</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.98445761112279</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>144.1049093563348</v>
+        <v>162.2349980398473</v>
       </c>
       <c r="S22" t="n">
         <v>218.0334403539447</v>
@@ -29016,7 +29016,7 @@
         <v>286.0387368492568</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>52.11744194584145</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -29025,7 +29025,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.9297647466704</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.5744720514561</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7272597341965</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>76.32009000103544</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6377066414877</v>
+        <v>28.38630523875432</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -29183,7 +29183,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.852242297488289</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
@@ -29247,16 +29247,16 @@
         <v>218.0334403539447</v>
       </c>
       <c r="T25" t="n">
-        <v>227.2723385499247</v>
+        <v>26.45342942882698</v>
       </c>
       <c r="U25" t="n">
         <v>286.0387368492568</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>85.80069586890721</v>
       </c>
       <c r="W25" t="n">
-        <v>98.22170405896969</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -29296,7 +29296,7 @@
         <v>140.6805920431033</v>
       </c>
       <c r="J26" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431068</v>
       </c>
       <c r="K26" t="n">
         <v>140.6805920431033</v>
@@ -29305,7 +29305,7 @@
         <v>140.6805920431033</v>
       </c>
       <c r="M26" t="n">
-        <v>140.6805920431073</v>
+        <v>140.6805920431033</v>
       </c>
       <c r="N26" t="n">
         <v>140.6805920431033</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>110.5505178475673</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29366,10 +29366,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I27" t="n">
         <v>76.31402067538706</v>
@@ -29399,16 +29399,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>72.52085052294322</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>140.6805920431033</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>140.6805920431033</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>140.6805920431033</v>
       </c>
       <c r="J28" t="n">
-        <v>71.29711915503229</v>
+        <v>140.6805920431033</v>
       </c>
       <c r="K28" t="n">
-        <v>110.1279288295798</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>140.6805920431033</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
+        <v>99.72891355263116</v>
+      </c>
+      <c r="P28" t="n">
         <v>140.6805920431033</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>140.6805920431033</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>58.98445761112279</v>
       </c>
       <c r="R28" t="n">
         <v>140.6805920431033</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="C29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="D29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="E29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="G29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="H29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="I29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="J29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="K29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="L29" t="n">
-        <v>140.6805920431074</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="M29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="N29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="O29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="P29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Q29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="R29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="S29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="T29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="U29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="V29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="W29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="X29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Y29" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
     </row>
     <row r="30">
@@ -29591,19 +29591,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>29.27709553762537</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F30" t="n">
-        <v>140.6805920431033</v>
+        <v>110.5505178475672</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H30" t="n">
         <v>107.6042570273855</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>76.32009000103544</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="C31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="D31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="E31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="F31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="G31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="H31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="I31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6805920431033</v>
+        <v>71.29711915503229</v>
       </c>
       <c r="K31" t="n">
-        <v>140.6805920431033</v>
+        <v>110.1279288295775</v>
       </c>
       <c r="L31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>140.6805920431033</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>40.74445594150878</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Q31" t="n">
         <v>58.98445761112279</v>
       </c>
       <c r="R31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="S31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="T31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="U31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="V31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="W31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="X31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431034</v>
       </c>
     </row>
     <row r="32">
@@ -29770,7 +29770,7 @@
         <v>140.6805920431033</v>
       </c>
       <c r="J32" t="n">
-        <v>140.6805920431033</v>
+        <v>140.6805920431068</v>
       </c>
       <c r="K32" t="n">
         <v>140.6805920431033</v>
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>140.6805920431033</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>29.27709553762536</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.31402067538706</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,22 +29876,22 @@
         <v>76.32009000103544</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>140.6805920431033</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>140.6805920431033</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>72.51478119729447</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>140.6805920431033</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29934,22 +29934,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>140.6805920431033</v>
       </c>
-      <c r="M34" t="n">
-        <v>110.1279288295804</v>
-      </c>
       <c r="N34" t="n">
-        <v>140.6805920431033</v>
+        <v>28.43179439759886</v>
       </c>
       <c r="O34" t="n">
         <v>140.6805920431033</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>140.6805920431033</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.98445761112279</v>
+        <v>140.6805920431033</v>
       </c>
       <c r="R34" t="n">
         <v>140.6805920431033</v>
@@ -29983,37 +29983,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="C35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="D35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="E35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="F35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="G35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="H35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="I35" t="n">
         <v>183.8997758062031</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>84.44256902763738</v>
       </c>
       <c r="K35" t="n">
-        <v>170.597787805143</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1052903194586</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="S35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="T35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="U35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="V35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="W35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="X35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
     </row>
     <row r="36">
@@ -30071,13 +30071,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>32.90020043782945</v>
       </c>
       <c r="H36" t="n">
         <v>107.6042570273855</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>76.32009000103544</v>
       </c>
       <c r="S36" t="n">
         <v>163.4644637125223</v>
       </c>
       <c r="T36" t="n">
-        <v>71.99321504907401</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30125,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>162.2349980398473</v>
       </c>
       <c r="S37" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="T37" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="U37" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="V37" t="n">
-        <v>187.7448586066414</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="W37" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="X37" t="n">
-        <v>193.2605090969645</v>
+        <v>187.7448586066412</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
     </row>
     <row r="38">
@@ -30220,40 +30220,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="C38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="D38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="E38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="F38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="G38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="H38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="I38" t="n">
         <v>183.8997758062031</v>
       </c>
       <c r="J38" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="M38" t="n">
-        <v>170.5977878051431</v>
+        <v>170.597787805143</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>107.1052903194586</v>
       </c>
       <c r="S38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="T38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="U38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="V38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="W38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="X38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
     </row>
     <row r="39">
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H39" t="n">
         <v>107.6042570273855</v>
       </c>
       <c r="I39" t="n">
-        <v>71.98714572342574</v>
+        <v>76.31402067538706</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.32009000103544</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.4644637125223</v>
+        <v>149.484696040815</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.2605090969645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30387,7 +30387,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>141.4589736828761</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -30429,25 +30429,25 @@
         <v>162.2349980398473</v>
       </c>
       <c r="S40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="T40" t="n">
-        <v>193.2605090969645</v>
+        <v>187.7448586066412</v>
       </c>
       <c r="U40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="V40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="W40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="X40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.2605090969645</v>
+        <v>193.2605090969646</v>
       </c>
     </row>
     <row r="41">
@@ -30484,19 +30484,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>170.5977878051432</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>178.0439190479835</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>185.8143778541241</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>193.2605090969646</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>107.1052903194586</v>
       </c>
       <c r="S41" t="n">
-        <v>193.2605090969646</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="T41" t="n">
         <v>193.2605090969646</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.6042570273855</v>
       </c>
       <c r="I42" t="n">
         <v>76.31402067538706</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>76.32009000103544</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.4644637125223</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>125.5123072449879</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>117.2336386735705</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.5680410003604</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.98445761112279</v>
+        <v>53.46880712079936</v>
       </c>
       <c r="R43" t="n">
         <v>162.2349980398473</v>
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>170.5977878051428</v>
+        <v>84.44256902763681</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1052903194585</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="S44" t="n">
         <v>193.2605090969645</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7272597341965</v>
       </c>
       <c r="H45" t="n">
         <v>107.6042570273855</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>76.32009000103542</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.1375887605608</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30836,13 +30836,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>99.73041902739975</v>
+      </c>
+      <c r="Y45" t="n">
         <v>193.2605090969645</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30903,13 +30903,13 @@
         <v>162.2349980398473</v>
       </c>
       <c r="S46" t="n">
-        <v>193.2605090969645</v>
+        <v>187.7448586066414</v>
       </c>
       <c r="T46" t="n">
         <v>193.2605090969645</v>
       </c>
       <c r="U46" t="n">
-        <v>187.7448586066414</v>
+        <v>193.2605090969645</v>
       </c>
       <c r="V46" t="n">
         <v>193.2605090969645</v>
@@ -35410,25 +35410,25 @@
         <v>46.28691320563491</v>
       </c>
       <c r="K11" t="n">
-        <v>192.8837940806969</v>
+        <v>94.68645881419161</v>
       </c>
       <c r="L11" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>154.3532156378396</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>188.7592253080338</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>63.79132559631091</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.42882010704588</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>188.4379543927691</v>
       </c>
       <c r="L12" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>85.31000102220374</v>
       </c>
       <c r="O12" t="n">
-        <v>49.88118091515812</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="Q12" t="n">
         <v>119.7759675091984</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>33.11987348446434</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.05203433201904</v>
+        <v>69.33786392355114</v>
       </c>
       <c r="L13" t="n">
-        <v>162.7547570914913</v>
+        <v>74.34905401549491</v>
       </c>
       <c r="M13" t="n">
         <v>89.09055156119689</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>46.28691320563491</v>
       </c>
       <c r="K14" t="n">
-        <v>192.8837940806969</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>11.88090353544077</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="M14" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>158.4777844105025</v>
       </c>
       <c r="P14" t="n">
         <v>188.7592253080338</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="M15" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>157.2761936960277</v>
       </c>
       <c r="O15" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.5002261868293</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.7759675091984</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>74.34905401549491</v>
       </c>
       <c r="M16" t="n">
-        <v>177.4962546371929</v>
+        <v>89.09055156119689</v>
       </c>
       <c r="N16" t="n">
         <v>92.1653712054177</v>
@@ -35820,7 +35820,7 @@
         <v>69.63812603365693</v>
       </c>
       <c r="P16" t="n">
-        <v>36.1303952663862</v>
+        <v>124.5360983423828</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.945788495039882</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>128.9136882067626</v>
       </c>
       <c r="L17" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="M17" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="N17" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="P17" t="n">
-        <v>188.7592253080338</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>63.79132559631091</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.42882010704588</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.4379543927691</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>200.8189091210978</v>
+        <v>192.7050138030735</v>
       </c>
       <c r="M18" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="P18" t="n">
-        <v>49.88118091515812</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.7759675091984</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.28691320563491</v>
+        <v>11.8809035354405</v>
       </c>
       <c r="K20" t="n">
         <v>192.8837940806969</v>
       </c>
       <c r="L20" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="M20" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>154.3532156378396</v>
+        <v>188.7592253080338</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>35.42882010704588</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.4379543927691</v>
       </c>
       <c r="L21" t="n">
-        <v>200.8189091210978</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="M21" t="n">
-        <v>200.8189091210978</v>
+        <v>49.88118091515783</v>
       </c>
       <c r="N21" t="n">
-        <v>37.5002261868293</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>200.8189091210978</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>119.7759675091984</v>
@@ -36358,25 +36358,25 @@
         <v>46.28691320563491</v>
       </c>
       <c r="K23" t="n">
-        <v>192.8837940806969</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>158.4777844105025</v>
       </c>
       <c r="M23" t="n">
-        <v>102.6215738545925</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>200.8189091210977</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="P23" t="n">
         <v>188.7592253080338</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.79132559631091</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.42882010704588</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>200.8189091210977</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>200.8189091210977</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>192.7050138030735</v>
+      </c>
+      <c r="P24" t="n">
         <v>200.8189091210977</v>
       </c>
-      <c r="O24" t="n">
-        <v>200.8189091210977</v>
-      </c>
-      <c r="P24" t="n">
-        <v>37.5002261868293</v>
-      </c>
       <c r="Q24" t="n">
-        <v>119.7759675091984</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.9675052487382</v>
+        <v>186.9675052487417</v>
       </c>
       <c r="K26" t="n">
         <v>333.5643861238003</v>
@@ -36601,13 +36601,13 @@
         <v>432.464012858197</v>
       </c>
       <c r="M26" t="n">
-        <v>480.7118217381313</v>
+        <v>480.7118217381274</v>
       </c>
       <c r="N26" t="n">
-        <v>470.5399683926929</v>
+        <v>470.539968392693</v>
       </c>
       <c r="O26" t="n">
-        <v>405.5631531135015</v>
+        <v>405.5631531135016</v>
       </c>
       <c r="P26" t="n">
         <v>329.4398173511372</v>
@@ -36616,7 +36616,7 @@
         <v>204.4719176394142</v>
       </c>
       <c r="R26" t="n">
-        <v>33.57530172364475</v>
+        <v>33.57530172364478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.38347288807104</v>
       </c>
       <c r="K28" t="n">
-        <v>124.1799631615988</v>
+        <v>14.05203433201904</v>
       </c>
       <c r="L28" t="n">
-        <v>215.0296460585982</v>
+        <v>74.34905401549491</v>
       </c>
       <c r="M28" t="n">
-        <v>229.7711436043002</v>
+        <v>89.09055156119689</v>
       </c>
       <c r="N28" t="n">
-        <v>92.1653712054177</v>
+        <v>232.845963248521</v>
       </c>
       <c r="O28" t="n">
-        <v>210.3187180767602</v>
+        <v>169.3670395862881</v>
       </c>
       <c r="P28" t="n">
-        <v>36.1303952663862</v>
+        <v>176.8109873094895</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>81.69613443198054</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.9675052487382</v>
+        <v>186.9675052487383</v>
       </c>
       <c r="K29" t="n">
-        <v>333.5643861238003</v>
+        <v>333.5643861238004</v>
       </c>
       <c r="L29" t="n">
-        <v>432.4640128582009</v>
+        <v>432.4640128581971</v>
       </c>
       <c r="M29" t="n">
-        <v>480.7118217381274</v>
+        <v>480.7118217381275</v>
       </c>
       <c r="N29" t="n">
-        <v>470.5399683926929</v>
+        <v>470.539968392693</v>
       </c>
       <c r="O29" t="n">
-        <v>405.5631531135015</v>
+        <v>405.5631531135016</v>
       </c>
       <c r="P29" t="n">
-        <v>329.4398173511372</v>
+        <v>329.4398173511373</v>
       </c>
       <c r="Q29" t="n">
-        <v>204.4719176394142</v>
+        <v>204.4719176394143</v>
       </c>
       <c r="R29" t="n">
-        <v>33.57530172364475</v>
+        <v>33.57530172364486</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.38347288807101</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7326263751224</v>
+        <v>124.1799631615965</v>
       </c>
       <c r="L31" t="n">
-        <v>215.0296460585982</v>
+        <v>215.0296460585983</v>
       </c>
       <c r="M31" t="n">
         <v>89.09055156119689</v>
       </c>
       <c r="N31" t="n">
-        <v>232.845963248521</v>
+        <v>92.1653712054177</v>
       </c>
       <c r="O31" t="n">
-        <v>110.3825819751657</v>
+        <v>210.3187180767603</v>
       </c>
       <c r="P31" t="n">
-        <v>36.1303952663862</v>
+        <v>176.8109873094896</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.9675052487382</v>
+        <v>186.9675052487417</v>
       </c>
       <c r="K32" t="n">
-        <v>333.5643861238002</v>
+        <v>333.5643861238003</v>
       </c>
       <c r="L32" t="n">
-        <v>432.4640128581968</v>
+        <v>432.464012858197</v>
       </c>
       <c r="M32" t="n">
         <v>480.7118217381274</v>
       </c>
       <c r="N32" t="n">
-        <v>470.5399683926929</v>
+        <v>470.539968392693</v>
       </c>
       <c r="O32" t="n">
-        <v>405.5631531135015</v>
+        <v>405.5631531135016</v>
       </c>
       <c r="P32" t="n">
-        <v>329.4398173511371</v>
+        <v>329.4398173511372</v>
       </c>
       <c r="Q32" t="n">
         <v>204.4719176394142</v>
       </c>
       <c r="R32" t="n">
-        <v>33.57530172364472</v>
+        <v>33.57530172364478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>14.05203433201904</v>
       </c>
       <c r="L34" t="n">
-        <v>215.0296460585982</v>
+        <v>74.34905401549491</v>
       </c>
       <c r="M34" t="n">
-        <v>199.2184803907773</v>
+        <v>229.7711436043002</v>
       </c>
       <c r="N34" t="n">
-        <v>232.8459632485209</v>
+        <v>120.5971656030166</v>
       </c>
       <c r="O34" t="n">
-        <v>210.3187180767602</v>
+        <v>210.3187180767603</v>
       </c>
       <c r="P34" t="n">
-        <v>36.1303952663862</v>
+        <v>176.8109873094895</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>81.69613443198054</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>46.28691320563491</v>
+        <v>130.7294822332723</v>
       </c>
       <c r="K35" t="n">
-        <v>363.4815818858399</v>
+        <v>192.8837940806969</v>
       </c>
       <c r="L35" t="n">
-        <v>485.0439299120582</v>
+        <v>291.7834208150936</v>
       </c>
       <c r="M35" t="n">
         <v>340.0312296950241</v>
@@ -37318,7 +37318,7 @@
         <v>329.8593763495896</v>
       </c>
       <c r="O35" t="n">
-        <v>264.8825610703983</v>
+        <v>458.1430701673628</v>
       </c>
       <c r="P35" t="n">
         <v>188.7592253080338</v>
@@ -37327,7 +37327,7 @@
         <v>63.79132559631091</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>86.15521877750601</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>188.4379543927691</v>
       </c>
       <c r="L36" t="n">
-        <v>314.8423338267984</v>
+        <v>272.2346221303453</v>
       </c>
       <c r="M36" t="n">
         <v>420.7396827907694</v>
@@ -37397,7 +37397,7 @@
         <v>447.4296849951829</v>
       </c>
       <c r="O36" t="n">
-        <v>298.3919075968302</v>
+        <v>340.9996192932832</v>
       </c>
       <c r="P36" t="n">
         <v>257.0897918042956</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>239.5474223025994</v>
+        <v>46.28691320563491</v>
       </c>
       <c r="K38" t="n">
         <v>192.8837940806969</v>
       </c>
       <c r="L38" t="n">
-        <v>291.7834208150936</v>
+        <v>485.0439299120582</v>
       </c>
       <c r="M38" t="n">
-        <v>510.6290175001672</v>
+        <v>510.6290175001671</v>
       </c>
       <c r="N38" t="n">
         <v>329.8593763495896</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>35.42882010704588</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>188.4379543927691</v>
@@ -37637,10 +37637,10 @@
         <v>340.9996192932832</v>
       </c>
       <c r="P39" t="n">
-        <v>214.4820801078427</v>
+        <v>257.0897918042956</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.7759675091984</v>
+        <v>112.5970759197913</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>46.28691320563491</v>
       </c>
       <c r="K41" t="n">
-        <v>363.4815818858402</v>
+        <v>192.8837940806969</v>
       </c>
       <c r="L41" t="n">
-        <v>291.7834208150936</v>
+        <v>469.827339863077</v>
       </c>
       <c r="M41" t="n">
-        <v>340.0312296950241</v>
+        <v>525.8456075491482</v>
       </c>
       <c r="N41" t="n">
         <v>329.8593763495896</v>
       </c>
       <c r="O41" t="n">
-        <v>458.1430701673628</v>
+        <v>264.8825610703983</v>
       </c>
       <c r="P41" t="n">
         <v>188.7592253080338</v>
@@ -37859,13 +37859,13 @@
         <v>35.42882010704588</v>
       </c>
       <c r="K42" t="n">
-        <v>188.4379543927691</v>
+        <v>145.830242696316</v>
       </c>
       <c r="L42" t="n">
         <v>314.8423338267984</v>
       </c>
       <c r="M42" t="n">
-        <v>378.1319710943163</v>
+        <v>420.7396827907694</v>
       </c>
       <c r="N42" t="n">
         <v>447.4296849951829</v>
@@ -38029,7 +38029,7 @@
         <v>329.8593763495897</v>
       </c>
       <c r="O44" t="n">
-        <v>435.4803488755411</v>
+        <v>349.3251300980351</v>
       </c>
       <c r="P44" t="n">
         <v>188.7592253080339</v>
@@ -38038,7 +38038,7 @@
         <v>63.79132559631095</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>86.15521877750598</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
